--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,7 +44,37 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:31 AM</t>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>6:8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>155.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 30 July, 2025 12:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +284,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +296,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +704,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>305.51999999999998</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
     <t>6:8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>144.00</t>
   </si>
   <si>
@@ -63,9 +78,6 @@
   </si>
   <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>150.00</t>
@@ -765,42 +777,75 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>305.51999999999998</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>23</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>336.51999999999998</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +864,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>6:8</t>
+    <t>7:9</t>
   </si>
   <si>
     <t>144.00</t>
@@ -80,13 +80,16 @@
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>150.00</t>
   </si>
   <si>
     <t>150.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:32 AM</t>
+    <t>Wednesday, 30 July, 2025 12:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -793,7 +796,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -803,11 +806,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -829,13 +832,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>7:9</t>
+    <t>6:8</t>
   </si>
   <si>
     <t>144.00</t>
@@ -80,13 +80,25 @@
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
     <t>150.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>Wednesday, 30 July, 2025 12:33 AM</t>
@@ -796,7 +808,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -806,49 +818,82 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>336.51999999999998</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>27</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>386.51999999999998</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>31</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>32</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +917,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -101,7 +116,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:33 AM</t>
+    <t>Wednesday, 30 July, 2025 9:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -808,7 +823,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -818,14 +833,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -834,20 +849,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -862,38 +877,71 @@
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>386.51999999999998</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>31</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
         <v>32</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>33</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>403.35000000000002</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>37</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -922,10 +970,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -116,7 +125,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:13 AM</t>
+    <t>Wednesday, 30 July, 2025 9:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -774,7 +783,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -783,14 +792,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -800,14 +809,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,14 +825,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -833,14 +842,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -849,14 +858,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -873,7 +882,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -889,59 +898,92 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>403.35000000000002</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>424.35000000000002</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -110,22 +110,31 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:14 AM</t>
+    <t>Wednesday, 30 July, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -952,38 +961,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>424.35000000000002</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>439.35000000000002</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1064,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -71,9 +83,6 @@
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -134,7 +143,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:02 AM</t>
+    <t>Wednesday, 30 July, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -825,7 +834,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -834,14 +843,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -851,14 +860,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -867,14 +876,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -884,14 +893,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -900,14 +909,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -924,7 +933,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -940,24 +949,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -966,20 +975,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -990,42 +999,75 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>439.35000000000002</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>37</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>38</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>519.35000000000002</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1111,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -71,6 +71,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>0</t>
@@ -900,7 +909,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -909,14 +918,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -926,14 +935,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -949,7 +958,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,14 +968,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,28 +984,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>17</v>
@@ -1008,20 +1017,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1036,38 +1045,71 @@
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>519.35000000000002</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>41</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>568.35000000000002</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>48</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>49</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1158,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:04 AM</t>
+    <t>Wednesday, 30 July, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:21 AM</t>
+    <t>Wednesday, 30 July, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:27 AM</t>
+    <t>Wednesday, 30 July, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -131,12 +143,33 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>73:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -152,7 +185,25 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:30 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 30 July, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -942,7 +993,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -951,14 +1002,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -968,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -991,7 +1042,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1001,14 +1052,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1017,20 +1068,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1057,59 +1108,224 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>568.35000000000002</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>47</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>48</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>49</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>46</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>21</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>46</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>55</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>46</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>46</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>53</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>61</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>46</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>657.23000000000002</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1163,10 +1379,35 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -203,7 +203,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:32 AM</t>
+    <t>Wednesday, 30 July, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>150.0000</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 2/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -1108,21 +1117,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>17</v>
@@ -1134,20 +1143,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1180,7 +1189,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1213,7 +1222,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1246,18 +1255,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,66 +1275,99 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c t="s" r="Q20" s="12">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>64</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>657.23000000000002</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>64</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>65</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>66</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>750.23000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:37 AM</t>
+    <t>Wednesday, 30 July, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
@@ -212,7 +221,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:39 AM</t>
+    <t>Wednesday, 30 July, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,7 +1126,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1150,21 +1159,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1176,20 +1185,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1222,7 +1231,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1255,7 +1264,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1288,18 +1297,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1308,66 +1317,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c t="s" r="Q21" s="12">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>67</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>52</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>750.23000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>68</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>69</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>778.23000000000002</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1493,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:41 AM</t>
+    <t>Wednesday, 30 July, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1093,7 +1102,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1110,7 +1119,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1159,7 +1168,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1192,21 +1201,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1218,20 +1227,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1264,7 +1273,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1297,7 +1306,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1330,18 +1339,18 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1350,66 +1359,99 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>55</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>778.23000000000002</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>70</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>71</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>72</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>864.73000000000002</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>73</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>74</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>75</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1540,15 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
@@ -230,7 +242,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:43 AM</t>
+    <t>Wednesday, 30 July, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1201,7 +1213,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1211,11 +1223,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1227,28 +1239,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1260,28 +1272,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1293,7 +1305,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1306,15 +1318,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1326,7 +1338,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1339,15 +1351,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1372,18 +1384,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1392,66 +1404,99 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>59</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>864.73000000000002</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>73</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>74</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>75</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>899.73000000000002</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>77</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>78</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>79</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1545,10 +1590,15 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -242,7 +257,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:48 AM</t>
+    <t>Wednesday, 30 July, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1114,7 +1129,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1124,14 +1139,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1140,14 +1155,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1157,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1173,7 +1188,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1190,11 +1205,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -1206,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1223,11 +1238,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1239,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1256,11 +1271,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1272,28 +1287,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1305,7 +1320,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1318,15 +1333,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1338,28 +1353,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1371,7 +1386,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1384,15 +1399,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1404,7 +1419,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1417,18 +1432,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1444,59 +1459,125 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>76</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>899.73000000000002</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>64</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>71</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
+      <c t="s" r="Q25" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>79</v>
       </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>64</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>986.73000000000002</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1595,10 +1676,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:49 AM</t>
+    <t>Wednesday, 30 July, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -257,7 +266,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:54 AM</t>
+    <t>Wednesday, 30 July, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,7 +1303,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,11 +1313,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1320,14 +1329,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1360,21 +1369,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1386,20 +1395,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1432,7 +1441,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1465,7 +1474,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1498,18 +1507,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1518,66 +1527,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c t="s" r="Q26" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>986.73000000000002</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>67</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1009.73</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1728,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -86,13 +86,16 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -125,9 +128,6 @@
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -155,6 +155,15 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -164,9 +173,27 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -242,12 +269,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -266,7 +287,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:59 AM</t>
+    <t>Wednesday, 30 July, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1044,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1032,14 +1053,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1049,11 +1070,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1065,14 +1086,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1082,14 +1103,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1098,14 +1119,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1247,11 +1268,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1263,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1280,11 +1301,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1296,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1313,11 +1334,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1336,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1379,11 +1400,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1395,28 +1416,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1428,28 +1449,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1461,7 +1482,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1474,15 +1495,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1494,20 +1515,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1540,18 +1561,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,20 +1581,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1588,38 +1609,137 @@
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1009.73</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>76</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>59</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>86</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>76</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>83</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>88</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>89</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>76</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1245.73</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>92</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>93</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>94</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1853,25 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -287,7 +296,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:07 AM</t>
+    <t>Wednesday, 30 July, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,7 +1069,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1070,14 +1079,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1086,14 +1095,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1103,14 +1112,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1119,14 +1128,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1136,14 +1145,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>40</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1159,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1185,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1209,7 +1218,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1225,7 +1234,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1242,7 +1251,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1291,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1324,7 +1333,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,11 +1343,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1350,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1390,7 +1399,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1423,7 +1432,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1456,7 +1465,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,11 +1475,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1522,21 +1531,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1548,20 +1557,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1594,7 +1603,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1627,15 +1636,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1647,7 +1656,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1660,18 +1669,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1680,66 +1689,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>91</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1245.73</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>92</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>79</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
         <v>93</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c t="s" r="Q31" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1285.73</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1868,10 +1910,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -173,6 +173,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:08 AM</t>
+    <t>Wednesday, 30 July, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1300,7 +1309,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1333,7 +1342,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1366,7 +1375,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1376,11 +1385,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1409,11 +1418,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1432,7 +1441,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1465,7 +1474,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1498,7 +1507,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,11 +1517,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1564,21 +1573,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1590,20 +1599,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1636,7 +1645,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1669,15 +1678,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1689,7 +1698,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1702,18 +1711,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1722,66 +1731,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>94</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1285.73</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>95</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>82</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>96</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1342.73</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -305,7 +305,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:13 AM</t>
+    <t>Wednesday, 30 July, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -206,9 +218,6 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -305,7 +314,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:18 AM</t>
+    <t>Wednesday, 30 July, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1078,7 +1087,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1088,14 +1097,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1104,14 +1113,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1137,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,7 +1170,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1203,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1212,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1227,7 +1236,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1243,7 +1252,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,11 +1328,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,11 +1361,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1385,11 +1394,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1418,11 +1427,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1451,11 +1460,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,7 +1493,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1507,7 +1516,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1540,7 +1549,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1606,21 +1615,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1632,20 +1641,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1678,7 +1687,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1711,15 +1720,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1731,7 +1740,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1744,18 +1753,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1764,66 +1773,99 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1342.73</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>98</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>85</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>99</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1367.73</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>101</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>102</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>103</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2004,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
@@ -314,7 +326,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:20 AM</t>
+    <t>Wednesday, 30 July, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1483,7 +1495,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,14 +1505,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1509,14 +1521,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1538,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>17</v>
@@ -1542,14 +1554,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1559,11 +1571,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>17</v>
@@ -1575,14 +1587,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1615,7 +1627,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,11 +1637,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1641,28 +1653,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1674,28 +1686,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1707,7 +1719,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1720,15 +1732,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1740,7 +1752,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1753,15 +1765,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1786,18 +1798,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1806,66 +1818,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1367.73</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>101</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>102</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>89</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>103</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1318.23</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2009,10 +2054,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:28 AM</t>
+    <t>Wednesday, 30 July, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -251,6 +251,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -326,7 +332,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:29 AM</t>
+    <t>Wednesday, 30 July, 2025 11:30 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1627,7 +1633,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1637,11 +1643,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1653,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1670,11 +1676,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1686,28 +1692,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>17</v>
@@ -1719,28 +1725,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1752,7 +1758,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1765,15 +1771,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1785,7 +1791,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1798,15 +1804,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -1818,7 +1824,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1831,18 +1837,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1858,59 +1864,92 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>104</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1318.23</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>91</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>105</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>106</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1354.23</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>107</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2098,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -332,7 +341,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:30 AM</t>
+    <t>Wednesday, 30 July, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1320,7 +1329,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1336,7 +1345,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1353,7 +1362,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1369,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1402,7 +1411,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1435,7 +1444,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1468,7 +1477,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,14 +1520,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,14 +1553,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,7 +1586,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1600,7 +1609,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1633,7 +1642,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1643,11 +1652,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1659,14 +1668,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,11 +1685,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1732,21 +1741,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1758,20 +1767,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1804,7 +1813,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1837,15 +1846,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>17</v>
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1870,18 +1879,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,66 +1899,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>106</v>
       </c>
-      <c t="s" r="Q35" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1354.23</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>107</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>94</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>108</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1376.23</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2145,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:44 AM</t>
+    <t>Wednesday, 30 July, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -293,9 +305,6 @@
     <t>73:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -317,16 +326,13 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t>30.0000</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>30.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1279,13 +1285,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1312,7 +1318,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -1338,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1355,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1371,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1388,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1404,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1421,11 +1427,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -1437,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>17</v>
@@ -1470,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1487,11 +1493,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>17</v>
@@ -1503,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,11 +1526,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>17</v>
@@ -1536,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1553,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1576,7 +1582,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1586,14 +1592,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1602,14 +1608,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,11 +1625,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -1635,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,11 +1658,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>17</v>
@@ -1668,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>17</v>
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1718,7 +1724,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1741,7 +1747,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>17</v>
@@ -1767,28 +1773,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>17</v>
@@ -1800,20 +1806,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1846,7 +1852,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1873,24 +1879,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,7 +1905,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1912,18 +1918,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1932,66 +1938,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>108</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>109</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1376.23</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>49</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>110</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c t="s" r="Q37" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1463.23</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>112</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>113</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>114</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2189,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:46 AM</t>
+    <t>Wednesday, 30 July, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BISOCARD 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -62,9 +77,6 @@
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>160.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -236,6 +245,18 @@
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -347,7 +368,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:52 AM</t>
+    <t>Wednesday, 30 July, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1005,7 +1026,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1014,14 +1035,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1031,14 +1052,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1047,14 +1068,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1071,7 +1092,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1087,7 +1108,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1097,14 +1118,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1113,14 +1134,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1170,7 +1191,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1186,7 +1207,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1285,24 +1306,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1311,31 +1332,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1368,7 +1389,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1384,7 +1405,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1401,7 +1422,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1417,7 +1438,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1434,7 +1455,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1450,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1467,7 +1488,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1483,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1500,7 +1521,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1516,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1533,7 +1554,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1549,7 +1570,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1580,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1596,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1613,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,14 +1646,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1641,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1674,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1712,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1745,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1778,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1811,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1819,7 +1840,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1830,7 +1851,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1846,13 +1867,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1863,7 +1884,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1879,24 +1900,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,31 +1926,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,31 +1959,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1971,66 +1992,132 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>12</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>52</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>111</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1463.23</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>112</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>113</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>114</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>115</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>116</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>52</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>117</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1561.8699999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2194,10 +2281,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 11:55 AM</t>
+    <t>Wednesday, 30 July, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -140,15 +140,33 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
     <t>6:8</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>155.5200</t>
   </si>
   <si>
@@ -167,9 +185,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -368,7 +383,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:04 PM</t>
+    <t>Wednesday, 30 July, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,13 +1288,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1290,7 +1305,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,14 +1314,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,11 +1331,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1332,31 +1347,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1397,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,28 +1413,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,14 +1463,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1464,7 +1479,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1481,11 +1496,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1529,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,7 +1545,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1547,11 +1562,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1563,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,11 +1595,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1596,7 +1611,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1613,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1629,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,14 +1661,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1669,7 +1684,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,14 +1694,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1760,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1768,7 +1783,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,11 +1793,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1794,7 +1809,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1811,7 +1826,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1834,7 +1849,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,11 +1859,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,11 +1892,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1893,28 +1908,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1926,7 +1941,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1939,15 +1954,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1959,31 +1974,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,7 +2007,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2005,15 +2020,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2025,28 +2040,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2058,66 +2073,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1561.8699999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>119</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>44</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>116</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>120</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>121</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>44</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>122</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1691.3900000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>124</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>125</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>126</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2372,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:24 PM</t>
+    <t>Wednesday, 30 July, 2025 12:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>BISOCARD 5MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -314,6 +323,15 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -383,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:25 PM</t>
+    <t>Wednesday, 30 July, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1041,7 +1059,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1050,14 +1068,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1067,14 +1085,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1090,7 +1108,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1100,14 +1118,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1116,14 +1134,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1133,14 +1151,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1149,14 +1167,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1173,7 +1191,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1182,14 +1200,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1199,14 +1217,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1215,14 +1233,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1239,7 +1257,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1255,7 +1273,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1283,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,31 +1299,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1314,20 +1332,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1338,7 +1356,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1354,7 +1372,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1364,14 +1382,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1380,14 +1398,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,14 +1415,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1420,13 +1438,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1437,7 +1455,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1453,24 +1471,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1503,7 +1521,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1519,7 +1537,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1536,7 +1554,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1552,7 +1570,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1569,7 +1587,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1585,7 +1603,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1602,7 +1620,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1618,7 +1636,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1635,7 +1653,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1651,7 +1669,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1668,7 +1686,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1702,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1745,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1849,7 +1867,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1866,7 +1884,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1882,7 +1900,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,14 +1926,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,7 +1959,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1958,14 +1976,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,31 +1992,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2007,31 +2025,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2040,20 +2058,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2064,7 +2082,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,24 +2098,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2106,31 +2124,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2139,66 +2157,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>125</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>47</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>122</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>123</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1691.3900000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>124</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>125</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>126</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>127</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>47</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1785.3900000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>130</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>131</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>132</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2382,10 +2466,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:26 PM</t>
+    <t>Wednesday, 30 July, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:27 PM</t>
+    <t>Wednesday, 30 July, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:33 PM</t>
+    <t>Wednesday, 30 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -401,7 +401,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:34 PM</t>
+    <t>Wednesday, 30 July, 2025 12:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -203,9 +215,6 @@
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -248,6 +257,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -401,7 +419,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 12:43 PM</t>
+    <t>Wednesday, 30 July, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,13 +1357,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1372,24 +1390,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1398,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,14 +1433,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1438,7 +1456,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1448,14 +1466,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1464,31 +1482,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1497,20 +1515,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1537,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1570,7 +1588,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1587,7 +1605,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1603,7 +1621,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1620,7 +1638,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1636,7 +1654,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1669,7 +1687,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1702,7 +1720,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,11 +1763,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1778,14 +1796,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1794,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1867,7 +1885,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1884,7 +1902,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1893,14 +1911,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,7 +1928,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -1943,11 +1961,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -1959,14 +1977,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,14 +1994,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,14 +2010,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,11 +2027,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2042,14 +2060,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,28 +2076,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2091,7 +2109,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2104,15 +2122,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2124,20 +2142,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2148,7 +2166,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2170,15 +2188,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2190,28 +2208,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2223,66 +2241,132 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>51</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1785.3900000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>130</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>131</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>132</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>51</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>134</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1953.3900000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>136</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>137</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>138</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2476,10 +2560,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -356,12 +365,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
@@ -371,6 +374,15 @@
     <t>93.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -404,9 +416,27 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -419,7 +449,13 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 1:16 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 30 July, 2025 1:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1638,7 +1674,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1654,7 +1690,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1671,7 +1707,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1687,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1720,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1753,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1786,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1819,7 +1855,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1829,11 +1865,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1845,14 +1881,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,7 +1914,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1895,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,7 +1997,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1984,7 +2020,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2017,7 +2053,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2027,11 +2063,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2043,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2060,14 +2096,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2083,7 +2119,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2093,14 +2129,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2126,11 +2162,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2142,28 +2178,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2175,14 +2211,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2192,11 +2228,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2208,14 +2244,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2225,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2241,7 +2277,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2258,11 +2294,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2281,7 +2317,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2291,11 +2327,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2307,14 +2343,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2324,49 +2360,214 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>135</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1953.3900000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>136</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>51</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>137</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>138</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>51</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>132</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>140</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>51</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>132</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>142</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>143</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>51</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>144</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>147</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>51</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>126</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2078.3899999999999</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>148</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>149</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>150</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2570,10 +2771,35 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -455,7 +455,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 1:26 PM</t>
+    <t>Wednesday, 30 July, 2025 1:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -161,12 +161,21 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>DOLLAR FOAM CLEANSER</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
@@ -455,7 +467,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 1:27 PM</t>
+    <t>Wednesday, 30 July, 2025 2:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1459,13 +1471,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1476,7 +1488,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1492,7 +1504,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1502,14 +1514,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1518,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1535,14 +1547,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1558,13 +1570,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1575,7 +1587,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1591,13 +1603,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1624,7 +1636,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1657,7 +1669,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1690,7 +1702,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1707,7 +1719,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1723,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1740,7 +1752,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1756,7 +1768,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1789,7 +1801,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1822,7 +1834,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1855,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1888,7 +1900,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,11 +1910,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2013,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2244,28 +2256,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,11 +2306,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,14 +2339,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2343,7 +2355,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2383,7 +2395,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2459,11 +2471,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2482,7 +2494,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2525,49 +2537,115 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2078.3899999999999</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>146</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>147</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>51</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>148</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>149</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>150</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>151</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>51</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>130</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2326.3899999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>152</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>153</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>154</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2796,10 +2874,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -425,6 +425,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -467,7 +479,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 2:04 PM</t>
+    <t>Wednesday, 30 July, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,7 +2440,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2450,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2454,14 +2466,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,11 +2483,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2487,14 +2499,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2520,14 +2532,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2541,10 +2553,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2570,7 +2582,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2603,49 +2615,82 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>154</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>155</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>51</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>130</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>131</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2326.3899999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>152</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>153</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>154</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2332.3899999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>156</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>157</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>158</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2884,10 +2929,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 2:05 PM</t>
+    <t>Wednesday, 30 July, 2025 2:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -119,282 +119,279 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLLAR FOAM CLEANSER</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>6:8</t>
+  </si>
+  <si>
+    <t>155.5200</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>-49.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 2/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>CONJYCLEAR FORTE 0.2% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLLAR FOAM CLEANSER</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>6:8</t>
-  </si>
-  <si>
-    <t>155.5200</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HEPTA CARBAMIDE CREAM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MYOGREL 75MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NODY NASAL SPRAY</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>-49.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 2/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -479,7 +476,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 2:18 PM</t>
+    <t>Wednesday, 30 July, 2025 2:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1335,7 +1332,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1417,7 +1414,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1427,11 +1424,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1443,7 +1440,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1456,15 +1453,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1476,7 +1473,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1489,15 +1486,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1509,7 +1506,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1526,11 +1523,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1542,14 +1539,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,14 +1556,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,7 +1572,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1592,11 +1589,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1608,28 +1605,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1641,14 +1638,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,11 +1655,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1674,7 +1671,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1691,11 +1688,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1707,7 +1704,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1724,11 +1721,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1740,7 +1737,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1757,11 +1754,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1773,7 +1770,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1790,11 +1787,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1806,14 +1803,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,11 +1820,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1839,14 +1836,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,11 +1853,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1872,7 +1869,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,11 +1886,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1905,7 +1902,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1922,11 +1919,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1938,7 +1935,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1955,11 +1952,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1971,7 +1968,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2004,7 +2001,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2021,14 +2018,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,7 +2034,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2054,14 +2051,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>106</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,14 +2067,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2091,7 +2088,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2103,7 +2100,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2120,11 +2117,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2136,7 +2133,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2153,11 +2150,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2169,7 +2166,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2190,7 +2187,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2202,7 +2199,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2219,11 +2216,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2235,14 +2232,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2268,7 +2265,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2285,11 +2282,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2301,28 +2298,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2334,28 +2331,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2367,7 +2364,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2380,15 +2377,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2400,28 +2397,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2433,28 +2430,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2466,7 +2463,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2479,7 +2476,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2487,7 +2484,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2499,28 +2496,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2545,15 +2542,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2565,28 +2562,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2598,28 +2595,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2631,28 +2628,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2660,13 +2657,13 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2332.3899999999999</v>
+        <v>2357.3899999999999</v>
       </c>
       <c r="Q54" s="13"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c t="s" r="A55" s="14">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -2674,13 +2671,13 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c t="s" r="G55" s="15">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
       <c t="s" r="K55" s="17">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -116,6 +116,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -200,6 +212,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -212,9 +233,6 @@
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -476,7 +494,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 2:19 PM</t>
+    <t>Wednesday, 30 July, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1332,7 +1350,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1348,7 +1366,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1358,11 +1376,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1398,7 +1416,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1414,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1440,20 +1458,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1486,15 +1504,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1506,31 +1524,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1579,7 +1597,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1605,31 +1623,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1655,14 +1673,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1671,24 +1689,24 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1711,7 +1729,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1744,7 +1762,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1761,7 +1779,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1777,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1810,7 +1828,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1827,7 +1845,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1843,7 +1861,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1876,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1909,7 +1927,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1952,11 +1970,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,11 +2003,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2183,11 +2201,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2267,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2298,28 +2316,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2331,28 +2349,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2364,28 +2382,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2397,20 +2415,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2421,7 +2439,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2437,21 +2455,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2463,31 +2481,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2496,28 +2514,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2529,7 +2547,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2542,18 +2560,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2562,28 +2580,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2595,31 +2613,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2628,66 +2646,132 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2357.3899999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>155</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>156</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>54</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>157</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>159</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>160</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>54</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>135</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2450.1500000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>161</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>162</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>163</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2931,10 +3015,20 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -149,18 +149,24 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -422,6 +428,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -494,7 +509,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 3:14 PM</t>
+    <t>Wednesday, 30 July, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1465,7 +1480,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1475,14 +1490,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1491,28 +1506,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1524,7 +1539,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1537,15 +1552,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1557,31 +1572,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1590,14 +1605,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1607,14 +1622,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1623,7 +1638,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1640,14 +1655,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1656,14 +1671,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1673,11 +1688,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1689,31 +1704,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1729,21 +1744,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1755,14 +1770,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1772,11 +1787,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1788,14 +1803,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1805,11 +1820,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1821,14 +1836,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1838,14 +1853,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1854,14 +1869,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1871,14 +1886,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1887,14 +1902,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1904,11 +1919,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1920,14 +1935,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1937,11 +1952,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1953,14 +1968,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1970,11 +1985,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -1986,14 +2001,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2019,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2036,11 +2051,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2052,7 +2067,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2069,11 +2084,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2085,14 +2100,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2102,14 +2117,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2118,7 +2133,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2135,14 +2150,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,11 +2249,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2250,14 +2265,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,7 +2282,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2290,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2315,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2356,7 +2371,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,11 +2381,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2382,28 +2397,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2415,28 +2430,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2448,28 +2463,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2481,31 +2496,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2514,28 +2529,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2547,31 +2562,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,7 +2608,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2601,7 +2616,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2613,7 +2628,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2626,18 +2641,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2646,28 +2661,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2679,31 +2694,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2712,66 +2727,132 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2450.1500000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>161</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>56</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>162</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>163</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>164</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>165</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>56</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>137</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2464.0300000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>166</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>167</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>168</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3025,10 +3106,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 3:28 PM</t>
+    <t>Wednesday, 30 July, 2025 3:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -509,7 +509,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 3:29 PM</t>
+    <t>Wednesday, 30 July, 2025 4:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -296,6 +296,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>MYOGREL 75MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -326,9 +335,24 @@
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -341,16 +365,22 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>-49.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -371,9 +401,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -416,6 +443,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -509,7 +542,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 4:00 PM</t>
+    <t>Wednesday, 30 July, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1975,7 +2008,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2008,7 +2041,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2041,7 +2074,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2074,7 +2107,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2084,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2100,7 +2133,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2117,11 +2150,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2133,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2150,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>109</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2166,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2183,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2206,7 +2239,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2232,7 +2265,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2249,14 +2282,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2265,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2282,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2298,14 +2331,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2315,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2331,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2397,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,11 +2414,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2447,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2430,20 +2463,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2454,7 +2487,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2476,15 +2509,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2496,7 +2529,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2509,15 +2542,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2529,14 +2562,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2546,11 +2579,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2579,14 +2612,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,14 +2628,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2612,11 +2645,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2628,7 +2661,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2645,11 +2678,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2668,7 +2701,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,11 +2711,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2701,7 +2734,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,11 +2744,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2727,14 +2760,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2744,11 +2777,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2777,11 +2810,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2810,49 +2843,181 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2464.0300000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>166</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>167</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>56</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>157</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>168</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>169</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>56</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>157</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>171</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>172</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>56</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>173</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>175</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>176</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>56</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>148</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2777.1100000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>177</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>178</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>179</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3116,10 +3281,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -542,7 +542,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 4:01 PM</t>
+    <t>Wednesday, 30 July, 2025 4:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -116,6 +116,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -155,9 +164,6 @@
     <t>8:3</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -287,15 +293,6 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
@@ -338,69 +335,81 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -422,6 +431,12 @@
     <t>19:0</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
@@ -467,7 +482,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -503,6 +518,12 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>فرش اسنان O2</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -521,9 +542,6 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -542,7 +560,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 4:14 PM</t>
+    <t>Wednesday, 30 July, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1399,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,11 +1409,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1480,7 +1498,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,11 +1541,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1546,7 +1564,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,28 +1590,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1605,7 +1623,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1618,15 +1636,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1638,31 +1656,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1689,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,14 +1706,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1704,7 +1722,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,11 +1772,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1770,31 +1788,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1810,21 +1828,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,11 +1871,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,11 +1904,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1937,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,11 +2003,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2001,7 +2019,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2018,11 +2036,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,11 +2069,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2067,7 +2085,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2084,11 +2102,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2100,7 +2118,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2117,11 +2135,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2133,7 +2151,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,14 +2201,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,14 +2283,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2300,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2331,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2382,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,11 +2399,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2437,7 +2455,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2503,7 +2521,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2575,18 +2593,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,28 +2613,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2628,28 +2646,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2661,28 +2679,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2694,28 +2712,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2727,28 +2745,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2760,28 +2778,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2793,31 +2811,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2839,7 +2857,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2847,7 +2865,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2859,7 +2877,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2872,18 +2890,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,24 +2910,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2938,7 +2956,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -2946,7 +2964,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2958,66 +2976,165 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2777.1100000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>175</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>176</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>58</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>162</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>177</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>178</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>58</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>179</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>181</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>182</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>58</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>153</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2821.9400000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>183</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>184</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>185</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3301,10 +3418,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -104,6 +104,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -434,7 +443,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
   </si>
   <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
@@ -482,7 +494,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -512,9 +524,6 @@
     <t>6.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -560,7 +569,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 5:12 PM</t>
+    <t>Wednesday, 30 July, 2025 5:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,7 +1375,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1442,11 +1451,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1475,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1491,14 +1500,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1531,7 +1540,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1541,14 +1550,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1607,14 +1616,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1630,21 +1639,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1656,7 +1665,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1669,7 +1678,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1696,13 +1705,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1713,7 +1722,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1795,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1828,24 +1837,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1854,24 +1863,24 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1894,7 +1903,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1927,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1960,7 +1969,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1977,7 +1986,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2010,7 +2019,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2059,7 +2068,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2092,7 +2101,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2158,7 +2167,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2217,31 +2226,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2250,31 +2259,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2323,7 +2332,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2356,7 +2365,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2373,7 +2382,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2455,7 +2464,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2488,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,11 +2507,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2554,7 +2563,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,20 +2655,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2692,15 +2701,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2712,28 +2721,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2752,24 +2761,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,7 +2787,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2791,18 +2800,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2844,20 +2853,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2868,7 +2877,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2884,21 +2893,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2910,7 +2919,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2923,15 +2932,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2943,28 +2952,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2983,24 +2992,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,31 +3018,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3042,28 +3051,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3075,66 +3084,99 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2821.9400000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>183</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>184</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>185</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>61</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>157</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2883.77</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>186</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>187</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>188</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3433,10 +3475,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -98,6 +98,9 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>49.00</t>
   </si>
   <si>
@@ -176,6 +179,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -473,9 +485,6 @@
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 5:41 PM</t>
+    <t>Wednesday, 30 July, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1351,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1352,11 +1361,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1368,7 +1377,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1385,11 +1394,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>22</v>
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1418,11 +1427,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1434,7 +1443,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1451,11 +1460,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1467,14 +1476,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1517,11 +1526,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1533,7 +1542,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1583,11 +1592,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1599,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1649,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1665,20 +1674,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1711,15 +1720,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1731,31 +1740,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1790,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,11 +1856,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1863,31 +1872,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,28 +1905,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,11 +1955,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1979,11 +1988,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2054,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,11 +2087,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,11 +2120,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,24 +2275,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,24 +2308,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2483,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,11 +2516,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,11 +2549,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>113</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,20 +2697,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2734,15 +2743,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2754,28 +2763,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2787,20 +2796,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2811,7 +2820,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2844,7 +2853,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,13 +2869,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2877,7 +2886,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2893,24 +2902,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2926,21 +2935,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -2952,7 +2961,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2965,15 +2974,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2985,28 +2994,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3025,24 +3034,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3051,31 +3060,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3084,28 +3093,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3117,66 +3126,99 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2883.77</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>186</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>187</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>188</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>65</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>160</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2927.77</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>189</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>190</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>191</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3480,10 +3522,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BISOCARD 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>63.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
@@ -287,6 +299,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
     <t>HEPTA CARBAMIDE CREAM</t>
   </si>
   <si>
@@ -359,10 +380,7 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>0:2</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -377,6 +395,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
     <t>RONIDERM TOPICAL LOTION 120ML</t>
   </si>
   <si>
@@ -578,7 +608,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 6:05 PM</t>
+    <t>Wednesday, 30 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1302,7 +1332,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1318,7 +1348,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1328,14 +1358,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1368,7 +1398,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1384,7 +1414,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1394,14 +1424,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1410,14 +1440,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1434,7 +1464,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1450,7 +1480,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1460,14 +1490,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1476,14 +1506,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1500,7 +1530,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1533,7 +1563,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1549,7 +1579,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1559,11 +1589,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1575,14 +1605,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1592,14 +1622,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1608,14 +1638,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1625,14 +1655,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1641,14 +1671,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1658,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1674,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1691,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1707,20 +1737,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1747,21 +1777,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1773,31 +1803,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1806,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1823,14 +1853,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1846,7 +1876,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1856,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,31 +1935,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1938,28 +1968,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -1971,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,11 +2018,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2004,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,11 +2051,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2037,7 +2067,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2054,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,14 +2100,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2103,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2120,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,11 +2183,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,11 +2216,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,11 +2249,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2235,7 +2265,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2252,11 +2282,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2301,31 +2331,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2334,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2374,24 +2404,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2400,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2417,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,7 +2529,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2516,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2549,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2612,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,14 +2645,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2631,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,11 +2678,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2664,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2714,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,28 +2760,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2770,24 +2800,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,28 +2826,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2829,31 +2859,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,28 +2892,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2902,24 +2932,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,20 +2958,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2949,10 +2979,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2961,28 +2991,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -2994,31 +3024,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3027,28 +3057,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3060,31 +3090,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3093,28 +3123,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3126,28 +3156,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3159,66 +3189,165 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2927.77</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>189</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>190</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>191</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>192</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>69</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>179</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>194</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>69</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>195</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>198</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>69</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>170</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3151.5900000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>199</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>200</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>201</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3527,10 +3656,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -209,6 +209,9 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -338,10 +341,10 @@
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
   </si>
   <si>
     <t>MYOGREL 75MG 30 F.C. TAB</t>
@@ -365,12 +368,6 @@
     <t>NODY NASAL SPRAY</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -608,7 +602,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 6:07 PM</t>
+    <t>Wednesday, 30 July, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1744,7 +1738,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1754,11 +1748,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1770,7 +1764,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1783,15 +1777,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1803,7 +1797,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1816,15 +1810,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1836,7 +1830,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1853,11 +1847,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>26</v>
@@ -1869,14 +1863,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1886,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1902,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1919,11 +1913,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1935,7 +1929,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1952,11 +1946,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1968,20 +1962,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1989,7 +1983,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2001,7 +1995,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2018,11 +2012,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2034,7 +2028,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2051,11 +2045,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2067,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2084,11 +2078,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>17</v>
@@ -2100,7 +2094,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2117,11 +2111,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2133,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,11 +2144,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>26</v>
@@ -2166,7 +2160,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2183,11 +2177,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2199,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2232,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2265,7 +2259,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2282,11 +2276,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2298,7 +2292,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2315,11 +2309,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2331,7 +2325,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2348,11 +2342,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2364,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2375,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,28 +2391,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2430,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>17</v>
@@ -2463,7 +2457,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2484,7 +2478,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2496,7 +2490,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2513,11 +2507,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>17</v>
@@ -2529,7 +2523,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2546,11 +2540,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2562,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,11 +2573,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2595,7 +2589,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2628,7 +2622,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2645,11 +2639,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2661,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,11 +2672,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2694,7 +2688,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2715,7 +2709,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2727,7 +2721,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2744,11 +2738,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2760,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,11 +2771,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2793,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,11 +2804,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>17</v>
@@ -2826,7 +2820,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2843,11 +2837,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2859,28 +2853,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -2892,7 +2886,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2905,7 +2899,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2925,28 +2919,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -2958,7 +2952,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2971,15 +2965,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>51</v>
@@ -2991,7 +2985,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3004,15 +2998,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3024,7 +3018,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3037,15 +3031,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3057,28 +3051,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3090,7 +3084,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3103,7 +3097,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3123,7 +3117,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3136,15 +3130,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3156,28 +3150,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3189,7 +3183,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3202,15 +3196,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3222,28 +3216,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3255,28 +3249,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3288,28 +3282,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3317,13 +3311,13 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>3151.5900000000001</v>
+        <v>3161.5900000000001</v>
       </c>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c t="s" r="A71" s="14">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -3331,13 +3325,13 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c t="s" r="G71" s="15">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
       <c t="s" r="K71" s="17">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>AMAGLUST 2/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -71,15 +86,9 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BISOCARD 5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -182,6 +191,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -257,9 +278,6 @@
     <t>155.5200</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -338,6 +356,24 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
@@ -386,9 +422,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -491,12 +524,6 @@
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>93.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -527,34 +554,49 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
+    <t>شاش فازلين 30*15</t>
   </si>
   <si>
     <t>صوفي طويل جدا</t>
@@ -602,7 +644,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 6:14 PM</t>
+    <t>Wednesday, 30 July, 2025 6:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1384,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1352,14 +1394,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1368,14 +1410,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1392,7 +1434,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1408,7 +1450,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1418,14 +1460,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1434,14 +1476,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1458,7 +1500,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1474,7 +1516,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1484,14 +1526,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1500,14 +1542,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1524,7 +1566,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1540,7 +1582,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1550,14 +1592,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1566,14 +1608,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1583,14 +1625,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1599,14 +1641,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1639,7 +1681,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1649,14 +1691,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1672,7 +1714,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1682,14 +1724,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1698,14 +1740,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1715,14 +1757,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1731,14 +1773,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1748,11 +1790,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1764,31 +1806,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1797,20 +1839,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1837,24 +1879,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1863,31 +1905,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1903,7 +1945,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1920,7 +1962,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1936,7 +1978,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1946,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1969,24 +2011,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2012,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2028,24 +2070,24 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2068,7 +2110,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2085,7 +2127,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2101,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2134,7 +2176,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2151,7 +2193,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2167,7 +2209,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2200,7 +2242,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2217,7 +2259,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2233,7 +2275,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2266,7 +2308,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2299,7 +2341,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2309,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,7 +2367,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2342,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2358,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2375,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2391,31 +2433,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2424,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2464,7 +2506,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2474,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2507,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2523,31 +2565,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2596,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2606,14 +2648,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2622,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2655,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2721,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2780,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2761,7 +2803,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2787,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2820,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,7 +2879,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -2860,13 +2902,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2877,7 +2919,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2893,21 +2935,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2919,31 +2961,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2959,24 +3001,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,28 +3027,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3018,31 +3060,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,28 +3093,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3084,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3117,24 +3159,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3157,24 +3199,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3190,21 +3232,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3216,28 +3258,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3249,28 +3291,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3282,66 +3324,264 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3161.5900000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>197</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>77</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>189</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>198</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c t="s" r="Q70" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>199</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>77</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>201</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>202</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>17</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>77</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>189</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>203</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>204</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>77</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>189</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>205</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>206</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>77</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>207</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>210</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>77</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>177</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3489.6700000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>211</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>212</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>213</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3665,10 +3905,40 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t>BISOCARD 5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>BISOLOCK-D 10/25MG 20 F.C.TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -311,6 +320,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -356,6 +374,33 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
   </si>
   <si>
@@ -365,6 +410,9 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -458,7 +506,7 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
+    <t>83.1600</t>
   </si>
   <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
@@ -554,7 +602,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -644,7 +692,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 6:28 PM</t>
+    <t>Wednesday, 30 July, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,7 +1432,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1394,14 +1442,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1410,14 +1458,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1434,7 +1482,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1450,7 +1498,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1467,7 +1515,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1483,7 +1531,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1493,14 +1541,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1509,14 +1557,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1533,7 +1581,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1549,7 +1597,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1559,14 +1607,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1575,14 +1623,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1599,7 +1647,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1615,7 +1663,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1625,14 +1673,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1641,14 +1689,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1658,14 +1706,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1674,14 +1722,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1714,7 +1762,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1724,14 +1772,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1740,14 +1788,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1780,7 +1828,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1790,14 +1838,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1813,7 +1861,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1823,14 +1871,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1839,14 +1887,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1856,14 +1904,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1872,28 +1920,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1905,7 +1953,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1918,7 +1966,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1945,13 +1993,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1962,7 +2010,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1978,7 +2026,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1988,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2011,7 +2059,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2069,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2044,7 +2092,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2061,7 +2109,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2077,24 +2125,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2103,24 +2151,24 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2143,7 +2191,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2176,13 +2224,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2193,7 +2241,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2209,7 +2257,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2242,7 +2290,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2259,7 +2307,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2275,7 +2323,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2308,7 +2356,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2325,7 +2373,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2341,7 +2389,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2358,7 +2406,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2374,7 +2422,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2432,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2407,7 +2455,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2424,7 +2472,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2440,7 +2488,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2457,7 +2505,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2483,11 +2531,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2499,14 +2547,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2564,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,14 +2580,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,14 +2597,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,31 +2613,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2646,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2663,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2679,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,14 +2696,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2664,14 +2712,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2714,14 +2762,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2778,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2795,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,31 +2811,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2803,7 +2851,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2877,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2894,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2869,7 +2917,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2943,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2993,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +3009,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3001,7 +3049,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,11 +3059,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3027,28 +3075,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3060,28 +3108,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3093,31 +3141,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3174,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,31 +3207,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,31 +3240,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,31 +3273,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3258,28 +3306,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3291,28 +3339,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3324,7 +3372,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3337,18 +3385,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>56</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,7 +3405,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3370,15 +3418,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3390,31 +3438,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3423,28 +3471,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3456,28 +3504,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3489,28 +3537,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3522,66 +3570,264 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3489.6700000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>211</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>212</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>213</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>17</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>80</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>205</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>216</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>80</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>217</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>218</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>80</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>205</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>219</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>220</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>80</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>205</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>221</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>222</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>80</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>223</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>225</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>226</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>80</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>193</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3729.5700000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>227</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>228</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>229</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3935,10 +4181,40 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>160.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -182,9 +191,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -329,6 +335,15 @@
     <t>31.1850</t>
   </si>
   <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -431,6 +446,18 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>MUPIRAX 2% OINT 30GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>MYOGREL 75MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -491,6 +518,15 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -572,6 +608,15 @@
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -602,9 +647,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -665,6 +707,12 @@
     <t>30.00</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -692,7 +740,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 6:44 PM</t>
+    <t>Wednesday, 30 July, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1449,7 +1497,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1465,7 +1513,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1475,14 +1523,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1491,14 +1539,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1508,14 +1556,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1524,14 +1572,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1541,14 +1589,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1557,14 +1605,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1578,10 +1626,10 @@
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1590,14 +1638,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1614,7 +1662,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1630,7 +1678,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1640,14 +1688,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1656,14 +1704,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1680,7 +1728,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1696,7 +1744,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1706,14 +1754,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1722,14 +1770,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1739,14 +1787,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1755,14 +1803,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1772,11 +1820,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1788,14 +1836,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1805,14 +1853,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1821,14 +1869,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1838,14 +1886,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1854,14 +1902,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1871,14 +1919,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1887,14 +1935,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1904,14 +1952,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1937,14 +1985,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1953,28 +2001,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1986,7 +2034,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1999,15 +2047,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2019,31 +2067,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2052,14 +2100,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2069,14 +2117,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2085,14 +2133,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2102,14 +2150,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2118,14 +2166,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2135,14 +2183,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2151,31 +2199,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2191,21 +2239,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2217,7 +2265,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2230,18 +2278,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2250,31 +2298,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2283,14 +2331,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2348,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2316,14 +2364,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,11 +2381,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2349,14 +2397,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2366,14 +2414,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2382,14 +2430,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2399,11 +2447,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2415,14 +2463,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2432,14 +2480,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2448,14 +2496,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2465,14 +2513,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2481,14 +2529,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2498,14 +2546,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,14 +2562,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2579,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2595,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,14 +2612,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2580,7 +2628,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2597,14 +2645,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2613,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2678,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2663,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,7 +2727,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2696,11 +2744,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2712,28 +2760,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2745,14 +2793,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,11 +2810,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2778,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,14 +2843,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2811,31 +2859,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2844,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2861,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2877,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,14 +2942,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2917,24 +2965,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2950,7 +2998,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2960,11 +3008,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2976,14 +3024,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,14 +3041,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3016,21 +3064,21 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3042,14 +3090,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3075,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,14 +3140,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3156,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3173,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3206,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,11 +3239,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3207,14 +3255,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,14 +3288,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,11 +3305,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3273,31 +3321,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3306,28 +3354,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3339,31 +3387,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3372,7 +3420,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3385,18 +3433,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,28 +3453,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3438,31 +3486,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,31 +3519,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3504,28 +3552,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3537,7 +3585,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3550,18 +3598,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3583,15 +3631,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3603,31 +3651,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3636,31 +3684,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3669,31 +3717,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3702,28 +3750,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3735,28 +3783,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3768,66 +3816,264 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3729.5700000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>227</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>229</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>230</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>82</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>231</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>232</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>233</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>82</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>200</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>234</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>82</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>219</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>235</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>236</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>82</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>219</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>228</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>229</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>237</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>238</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>82</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>239</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>242</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>82</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>208</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4069.3000000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>243</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>244</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>245</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4211,10 +4457,40 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -317,6 +317,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -626,6 +635,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
     <t>بيرسول حشرات طائره</t>
   </si>
   <si>
@@ -671,9 +683,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
@@ -704,9 +713,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -740,7 +746,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:26 PM</t>
+    <t>Wednesday, 30 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,7 +2278,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2305,13 +2311,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2322,7 +2328,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2338,13 +2344,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2371,7 +2377,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2388,7 +2394,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,7 +2427,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2437,7 +2443,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2454,7 +2460,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2487,7 +2493,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2503,7 +2509,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2520,7 +2526,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2536,7 +2542,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2569,7 +2575,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2579,7 +2585,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2635,7 +2641,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2652,7 +2658,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2668,7 +2674,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2711,11 +2717,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>30</v>
@@ -2734,7 +2740,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2751,7 +2757,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2767,21 +2773,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2793,20 +2799,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2833,7 +2839,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2866,7 +2872,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,11 +2915,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2965,24 +2971,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>162</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3004,18 +3010,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3057,7 +3063,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3070,18 +3076,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3097,13 +3103,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3114,7 +3120,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3130,7 +3136,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3163,7 +3169,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3180,7 +3186,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3196,7 +3202,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3262,7 +3268,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3295,7 +3301,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3361,7 +3367,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3404,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3427,7 +3433,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,28 +3459,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3493,7 +3499,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3526,7 +3532,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,11 +3641,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3668,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3816,7 +3822,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3856,7 +3862,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3932,14 +3938,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,11 +3971,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,49 +4037,115 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4069.3000000000002</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>239</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>240</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>82</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>241</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>243</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>244</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>82</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>212</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4124.3000000000002</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>245</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>246</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>247</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4487,10 +4559,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:28 PM</t>
+    <t>Wednesday, 30 July, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -608,10 +608,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8466:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
@@ -656,9 +668,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -746,7 +755,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:33 PM</t>
+    <t>Wednesday, 30 July, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3450,7 +3459,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3466,7 +3475,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,28 +3501,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3664,7 +3673,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,7 +3699,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3730,7 +3739,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3747,7 +3756,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3763,7 +3772,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3777,7 +3786,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3810,10 +3819,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3848,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3855,7 +3864,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>61</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3888,7 +3897,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3905,11 +3914,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3971,11 +3980,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4070,11 +4079,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4103,49 +4112,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4124.3000000000002</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>245</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>246</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
         <v>247</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>82</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>216</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4147.1300000000001</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>248</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>249</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>250</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4569,10 +4611,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -527,6 +527,9 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
     <t>RX MASSAGE SPRAY</t>
   </si>
   <si>
@@ -755,7 +758,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:47 PM</t>
+    <t>Wednesday, 30 July, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,11 +3125,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3138,31 +3141,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3221,14 +3224,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,7 +3280,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3353,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3501,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3541,21 +3544,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3617,11 +3620,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3650,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3673,7 +3676,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>149</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3749,14 +3752,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3867,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3881,11 +3884,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3914,11 +3917,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -3947,11 +3950,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3963,14 +3966,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4069,7 +4072,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4145,49 +4148,82 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>247</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>248</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>82</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>217</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4147.1300000000001</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>248</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4267.1300000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>249</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
         <v>250</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>251</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4616,10 +4652,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -758,7 +758,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:49 PM</t>
+    <t>Wednesday, 30 July, 2025 7:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>200.0000</t>
   </si>
   <si>
+    <t>EASYRON 30 TABLETS</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -437,6 +446,15 @@
     <t>MEDEXAFLAM 15MG 20 TABS.</t>
   </si>
   <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -713,6 +731,9 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
     <t>فرش اسنان O2</t>
   </si>
   <si>
@@ -758,7 +779,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:51 PM</t>
+    <t>Wednesday, 30 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2119,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2125,13 +2146,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2142,7 +2163,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2158,7 +2179,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2257,24 +2278,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,24 +2304,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2323,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2356,13 +2377,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2373,7 +2394,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2389,13 +2410,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2422,7 +2443,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2439,7 +2460,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2472,7 +2493,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2505,7 +2526,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2521,7 +2542,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2538,7 +2559,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2554,7 +2575,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2571,7 +2592,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2587,7 +2608,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2620,7 +2641,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,7 +2651,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2686,7 +2707,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2703,7 +2724,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2785,13 +2806,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2818,24 +2839,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2877,20 +2898,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2917,7 +2938,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,11 +2948,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2943,7 +2964,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>162</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,31 +3030,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3049,7 +3070,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,31 +3096,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3115,24 +3136,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,7 +3162,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3154,18 +3175,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,7 +3195,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3187,18 +3208,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3214,13 +3235,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3231,7 +3252,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,7 +3268,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3264,7 +3285,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3389,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3405,7 +3426,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>162</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,31 +3591,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,28 +3624,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3643,7 +3664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,11 +3674,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,11 +3707,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3702,14 +3723,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>149</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3785,11 +3806,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3818,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3841,7 +3862,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3855,10 +3876,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3891,7 +3912,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,7 +3928,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3950,11 +3971,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -3966,7 +3987,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3983,11 +4004,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -3999,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4016,11 +4037,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4032,14 +4053,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4049,11 +4070,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4065,7 +4086,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4082,14 +4103,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4098,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4115,11 +4136,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>106</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4131,14 +4152,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4148,11 +4169,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4171,7 +4192,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4181,49 +4202,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4267.1300000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>248</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>249</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>82</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>233</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>250</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>251</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>82</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>252</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>254</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>255</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>82</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>223</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4482.1300000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>256</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>257</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>258</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4657,10 +4777,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -380,6 +389,15 @@
     <t>126.7200</t>
   </si>
   <si>
+    <t>GROWTH FORMULA PREGNANT WOMAN 10 SACHETS 250 GM-CHOCHOLATE</t>
+  </si>
+  <si>
+    <t>179.50</t>
+  </si>
+  <si>
+    <t>179.5000</t>
+  </si>
+  <si>
     <t>HEPTA CARBAMIDE CREAM</t>
   </si>
   <si>
@@ -689,6 +707,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -749,9 +770,6 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -779,7 +797,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:57 PM</t>
+    <t>Wednesday, 30 July, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1717,7 +1735,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1734,7 +1752,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1750,7 +1768,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1760,14 +1778,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1800,7 +1818,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1816,7 +1834,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1826,11 +1844,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>30</v>
@@ -1842,14 +1860,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1866,7 +1884,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1882,7 +1900,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1915,7 +1933,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1925,14 +1943,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1941,14 +1959,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1958,7 +1976,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1981,7 +1999,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1991,14 +2009,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2014,7 +2032,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2024,14 +2042,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2040,14 +2058,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2057,14 +2075,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2073,28 +2091,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2106,7 +2124,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2119,7 +2137,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2152,7 +2170,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2179,13 +2197,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2196,7 +2214,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2212,7 +2230,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2222,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2245,7 +2263,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2255,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2278,7 +2296,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2311,24 +2329,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2337,24 +2355,24 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2377,7 +2395,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2410,13 +2428,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2427,7 +2445,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2443,13 +2461,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2476,7 +2494,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2493,7 +2511,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2526,7 +2544,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2542,7 +2560,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2559,7 +2577,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2575,7 +2593,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2592,7 +2610,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2608,7 +2626,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2641,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,7 +2669,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2674,7 +2692,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2691,7 +2709,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2707,7 +2725,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,7 +2735,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2740,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2757,7 +2775,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2773,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,11 +2801,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>30</v>
@@ -2799,7 +2817,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2812,15 +2830,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2832,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>30</v>
@@ -2872,13 +2890,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2905,24 +2923,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2949,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,11 +2966,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -2964,20 +2982,20 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3004,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,11 +3032,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3030,7 +3048,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3047,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3063,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,31 +3114,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3136,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,31 +3180,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3202,24 +3220,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,7 +3246,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3241,18 +3259,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,7 +3279,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3274,18 +3292,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3301,13 +3319,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3318,7 +3336,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3334,7 +3352,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3351,7 +3369,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3385,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3377,14 +3395,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3410,14 +3428,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3426,14 +3444,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3476,11 +3494,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3492,7 +3510,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3509,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3525,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,11 +3560,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3558,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3624,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3690,28 +3708,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3730,21 +3748,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3756,28 +3774,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3789,20 +3807,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3822,31 +3840,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>155</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,28 +3873,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3888,31 +3906,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,31 +3939,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3954,31 +3972,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,31 +4005,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,28 +4038,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4053,28 +4071,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4086,7 +4104,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4099,15 +4117,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4119,28 +4137,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4152,28 +4170,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>246</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4185,31 +4203,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4218,28 +4236,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4251,31 +4269,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4297,53 +4315,119 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4482.1300000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>256</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>257</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>85</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>258</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>260</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>261</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>85</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>229</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4865.6300000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>262</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>263</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>264</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4792,10 +4876,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 7:58 PM</t>
+    <t>Wednesday, 30 July, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:03 PM</t>
+    <t>Wednesday, 30 July, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:10 PM</t>
+    <t>Wednesday, 30 July, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2098,7 +2107,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,28 +2133,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2157,7 +2166,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2170,7 +2179,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2203,7 +2212,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2230,13 +2239,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2247,7 +2256,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2329,7 +2338,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2362,24 +2371,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2388,24 +2397,24 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2428,7 +2437,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2461,13 +2470,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2478,7 +2487,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2494,13 +2503,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2527,7 +2536,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2544,7 +2553,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2577,7 +2586,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2610,7 +2619,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2676,7 +2685,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2709,7 +2718,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,7 +2734,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,7 +2777,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2824,7 +2833,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2841,7 +2850,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2883,31 +2892,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2929,7 +2938,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2940,7 +2949,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2973,7 +2982,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2989,21 +2998,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3015,20 +3024,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3055,7 +3064,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3088,7 +3097,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3187,24 +3196,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3226,18 +3235,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,31 +3288,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3312,28 +3321,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3352,13 +3361,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3369,7 +3378,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3418,7 +3427,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3435,7 +3444,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3451,7 +3460,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3517,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3550,7 +3559,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>20</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3625,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>107</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,28 +3750,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3781,13 +3790,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3814,21 +3823,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3853,15 +3862,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>20</v>
@@ -3873,28 +3882,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3906,31 +3915,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>232</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3952,18 +3961,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>235</v>
-      </c>
-      <c t="s" r="Q83" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3979,13 +3988,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3996,7 +4005,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4012,13 +4021,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4026,7 +4035,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4038,20 +4047,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4059,10 +4068,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,28 +4080,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4117,15 +4126,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4137,28 +4146,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>20</v>
@@ -4170,28 +4179,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4203,28 +4212,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4236,28 +4245,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4269,31 +4278,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4302,31 +4311,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4335,28 +4344,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4368,66 +4377,99 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4865.6300000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>262</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>263</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>264</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>88</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>232</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4896.6300000000001</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>265</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>266</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>267</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4886,10 +4928,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -101,9 +116,6 @@
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>219.00</t>
   </si>
   <si>
@@ -218,9 +230,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -353,6 +362,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -452,6 +470,15 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>MARCAL 30 TABLETS</t>
   </si>
   <si>
@@ -674,6 +701,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>195.5100</t>
+  </si>
+  <si>
     <t>ZANOGLIDE 2/30 MG 30 TAB</t>
   </si>
   <si>
@@ -806,7 +842,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:12 PM</t>
+    <t>Wednesday, 30 July, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1530,7 +1566,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1539,14 +1575,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1556,11 +1592,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1589,14 +1625,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1605,14 +1641,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1638,14 +1674,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1655,14 +1691,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1671,14 +1707,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1704,14 +1740,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1721,14 +1757,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1744,7 +1780,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1754,11 +1790,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1770,14 +1806,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1803,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1827,7 +1863,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1843,7 +1879,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1893,7 +1929,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1909,7 +1945,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1919,14 +1955,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1935,14 +1971,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1952,11 +1988,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1968,14 +2004,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1992,7 +2028,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2008,7 +2044,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,14 +2054,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2041,7 +2077,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2074,7 +2110,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,14 +2136,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,14 +2153,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2140,7 +2176,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2150,14 +2186,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2166,28 +2202,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2199,7 +2235,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2212,7 +2248,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2245,7 +2281,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2272,13 +2308,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2289,7 +2325,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2305,7 +2341,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,14 +2351,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2338,7 +2374,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2371,7 +2407,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2388,7 +2424,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2404,24 +2440,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,24 +2466,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2470,7 +2506,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2503,13 +2539,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2520,7 +2556,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2536,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2553,7 +2589,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2569,13 +2605,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2586,7 +2622,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2602,7 +2638,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2619,7 +2655,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2635,7 +2671,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2668,7 +2704,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2685,7 +2721,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2718,7 +2754,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2734,7 +2770,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2767,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2800,7 +2836,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2817,7 +2853,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2833,7 +2869,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2879,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2866,7 +2902,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2883,7 +2919,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2899,7 +2935,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2945,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,31 +2961,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2958,7 +2994,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2975,14 +3011,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2991,14 +3027,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3044,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3031,21 +3067,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3057,14 +3093,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,7 +3126,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,11 +3143,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3123,28 +3159,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>20</v>
@@ -3156,14 +3192,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3209,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,31 +3258,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3291,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3328,24 +3364,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3354,31 +3390,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,31 +3456,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,13 +3496,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3477,7 +3513,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3493,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,14 +3539,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3519,14 +3555,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3605,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3638,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3618,14 +3654,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3704,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3684,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>177</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3757,7 +3793,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3783,31 +3819,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,31 +3852,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,31 +3885,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3882,28 +3918,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -3915,28 +3951,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -3948,31 +3984,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>235</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,28 +4017,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4014,31 +4050,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4054,24 +4090,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4126,15 +4162,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4146,31 +4182,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,31 +4215,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,28 +4248,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4245,28 +4281,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4278,28 +4314,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4311,31 +4347,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4344,28 +4380,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4377,28 +4413,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4410,66 +4446,198 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4896.6300000000001</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>265</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>266</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>267</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>268</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>17</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>91</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>255</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>270</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>91</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>255</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>271</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>272</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>91</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>273</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>275</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>276</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>91</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>244</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5195.1000000000004</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>277</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>278</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>279</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4933,10 +5101,30 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:15 PM</t>
+    <t>Wednesday, 30 July, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -752,69 +770,66 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 30*15</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>فرش اسنان O2</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 30*15</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>فرش اسنان O2</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -842,7 +857,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:17 PM</t>
+    <t>Wednesday, 30 July, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1894,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1889,14 +1904,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1905,14 +1920,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1929,7 +1944,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1945,7 +1960,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1955,11 +1970,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1995,7 +2010,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2011,7 +2026,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2044,7 +2059,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2061,7 +2076,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2077,7 +2092,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2087,7 +2102,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -2110,7 +2125,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2143,7 +2158,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2186,11 +2201,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2209,7 +2224,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2219,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2235,28 +2250,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2268,7 +2283,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2281,7 +2296,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2314,7 +2329,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2341,13 +2356,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2358,7 +2373,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2374,7 +2389,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2407,7 +2422,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2440,7 +2455,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2473,24 +2488,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2499,24 +2514,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2539,7 +2554,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2556,7 +2571,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2572,7 +2587,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2589,7 +2604,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2605,13 +2620,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2622,7 +2637,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2638,13 +2653,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2671,7 +2686,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2688,7 +2703,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2721,7 +2736,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2754,7 +2769,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2803,7 +2818,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2820,7 +2835,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2869,7 +2884,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2879,7 +2894,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2902,7 +2917,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2919,7 +2934,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2935,7 +2950,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2945,7 +2960,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3001,7 +3016,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3018,7 +3033,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3034,7 +3049,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3060,7 +3075,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3073,15 +3088,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3110,11 +3125,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3133,13 +3148,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3166,24 +3181,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3209,11 +3224,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3225,20 +3240,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3265,7 +3280,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,11 +3290,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3291,7 +3306,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,31 +3372,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3397,7 +3412,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3423,31 +3438,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>17</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3463,24 +3478,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,7 +3504,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3502,18 +3517,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,7 +3537,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3535,18 +3550,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3562,13 +3577,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3579,7 +3594,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3612,7 +3627,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3628,7 +3643,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3687,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3737,11 +3752,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>20</v>
@@ -3753,7 +3768,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3884,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>142</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3917,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,31 +3966,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3984,28 +3999,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4024,21 +4039,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4050,28 +4065,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>20</v>
@@ -4083,20 +4098,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4116,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>228</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4156,21 +4171,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4182,31 +4197,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4222,13 +4237,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4236,10 +4251,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>116</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,20 +4263,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4272,7 +4287,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4288,24 +4303,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,28 +4329,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4347,28 +4362,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4380,7 +4395,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4393,15 +4408,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4413,28 +4428,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4446,28 +4461,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4479,31 +4494,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>253</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>255</v>
+        <v>118</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4512,28 +4527,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4545,31 +4560,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4578,66 +4593,132 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5195.1000000000004</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
         <v>277</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>94</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>278</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>279</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>280</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>281</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>94</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>250</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5388</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>282</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>283</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>284</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5121,10 +5202,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -857,7 +857,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:18 PM</t>
+    <t>Wednesday, 30 July, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -74,21 +74,30 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
@@ -113,6 +122,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -191,9 +209,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -275,9 +290,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -389,6 +401,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
@@ -488,6 +509,15 @@
     <t>33.1650</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>LOADLESS 5/20MG 30 CAP</t>
   </si>
   <si>
@@ -770,60 +800,60 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 30*15</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>فرش اسنان O2</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 30*15</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>فرش اسنان O2</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -857,7 +887,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:34 PM</t>
+    <t>Wednesday, 30 July, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1627,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1607,14 +1637,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1623,14 +1653,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1640,11 +1670,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1656,14 +1686,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1680,7 +1710,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1696,7 +1726,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1762,7 +1792,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1776,10 +1806,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1788,14 +1818,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1812,7 +1842,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1828,7 +1858,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1842,10 +1872,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1854,14 +1884,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1878,7 +1908,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1911,7 +1941,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1927,7 +1957,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1937,14 +1967,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1986,14 +2016,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2052,14 +2082,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2069,14 +2099,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2102,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2118,14 +2148,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2135,14 +2165,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2168,14 +2198,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2184,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2201,11 +2231,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2224,7 +2254,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2241,7 +2271,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2267,14 +2297,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2283,31 +2313,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2333,11 +2363,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2349,7 +2379,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2362,15 +2392,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2415,31 +2445,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2465,11 +2495,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2481,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2498,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2514,7 +2544,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2527,18 +2557,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2547,14 +2577,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2564,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2580,31 +2610,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2630,11 +2660,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2646,28 +2676,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>25</v>
@@ -2679,14 +2709,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2696,14 +2726,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2712,14 +2742,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2745,31 +2775,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2778,14 +2808,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2795,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2811,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2828,11 +2858,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2844,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2861,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2877,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2894,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2910,14 +2940,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2927,11 +2957,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -2943,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2960,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2976,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2993,11 +3023,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3009,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3042,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3059,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3075,14 +3105,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3092,14 +3122,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3125,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3148,13 +3178,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3165,7 +3195,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3181,7 +3211,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3214,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3247,24 +3277,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3273,28 +3303,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3306,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3339,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3356,11 +3386,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3372,28 +3402,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3405,14 +3435,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3422,14 +3452,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3438,31 +3468,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3471,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3488,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3504,14 +3534,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3521,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3537,31 +3567,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3577,24 +3607,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3610,7 +3640,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3620,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3636,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3653,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3676,24 +3706,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,28 +3732,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3742,7 +3772,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3759,7 +3789,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3775,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3792,7 +3822,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3808,7 +3838,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3848,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3851,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,14 +3897,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3884,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3907,7 +3937,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3940,7 +3970,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3950,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3966,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3983,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3999,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4032,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4065,20 +4095,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4089,7 +4119,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4105,24 +4135,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4131,28 +4161,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>20</v>
@@ -4164,28 +4194,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4197,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>253</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4230,31 +4260,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4270,24 +4300,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4296,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4336,24 +4366,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4375,18 +4405,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4402,24 +4432,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4428,31 +4458,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4461,28 +4491,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4494,28 +4524,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4527,28 +4557,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4560,31 +4590,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4593,28 +4623,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4626,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4659,66 +4689,198 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5388</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>282</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>283</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>17</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>98</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>271</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>284</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>285</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>98</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>271</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>286</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>287</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>98</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>288</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>290</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>291</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>98</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>260</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5659.0100000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>292</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>293</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>294</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5212,10 +5374,30 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWITINE 30 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>67.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
@@ -101,15 +113,21 @@
     <t>ANTODINE 20MG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
   </si>
   <si>
@@ -887,7 +905,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:36 PM</t>
+    <t>Wednesday, 30 July, 2025 8:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1545,7 +1563,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1554,14 +1572,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1571,14 +1589,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1627,7 +1645,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1637,14 +1655,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1653,14 +1671,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1677,7 +1695,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1693,7 +1711,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,14 +1721,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1719,14 +1737,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1736,14 +1754,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1752,14 +1770,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1792,7 +1810,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1809,7 +1827,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1825,7 +1843,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1842,7 +1860,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1858,7 +1876,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1872,7 +1890,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1884,14 +1902,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1908,7 +1926,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1924,7 +1942,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1938,10 +1956,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1950,14 +1968,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1990,7 +2008,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2007,7 +2025,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,7 +2041,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2033,14 +2051,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2056,7 +2074,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2073,7 +2091,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2099,14 +2117,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2115,14 +2133,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2132,14 +2150,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2166,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2172,7 +2190,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2188,7 +2206,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2221,7 +2239,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,7 +2249,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2254,7 +2272,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2271,7 +2289,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2297,14 +2315,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,11 +2348,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2346,14 +2364,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2381,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2386,24 +2404,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2430,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,20 +2463,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2469,7 +2487,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2485,7 +2503,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2518,24 +2536,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2551,7 +2569,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2568,7 +2586,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2584,7 +2602,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2612,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2617,24 +2635,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,24 +2694,24 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2716,7 +2734,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2733,7 +2751,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,7 +2767,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2766,7 +2784,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2782,13 +2800,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2815,7 +2833,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2832,7 +2850,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2848,13 +2866,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2865,7 +2883,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2881,7 +2899,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2898,7 +2916,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2914,7 +2932,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2931,7 +2949,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2947,7 +2965,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2964,7 +2982,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2980,7 +2998,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2997,7 +3015,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3064,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3063,7 +3081,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3079,7 +3097,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3107,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3112,7 +3130,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3145,7 +3163,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3173,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3178,7 +3196,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3195,7 +3213,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3211,7 +3229,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3228,7 +3246,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3244,7 +3262,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,7 +3279,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3277,7 +3295,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,31 +3321,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3371,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,13 +3394,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3393,7 +3411,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3409,24 +3427,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,20 +3486,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3492,7 +3510,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3508,7 +3526,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3534,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,28 +3618,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3640,7 +3658,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,31 +3684,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3706,24 +3724,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,31 +3750,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,31 +3783,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3805,13 +3823,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3822,7 +3840,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,7 +3856,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3855,7 +3873,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3871,7 +3889,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3970,7 +3988,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4064,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>202</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>17</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,31 +4212,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4245,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4267,24 +4285,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,31 +4311,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,20 +4344,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4350,7 +4368,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,31 +4377,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>263</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4399,24 +4417,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,31 +4443,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>269</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,13 +4483,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4479,10 +4497,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,31 +4509,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4524,31 +4542,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,31 +4575,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,31 +4608,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,31 +4641,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,31 +4674,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,31 +4707,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,31 +4740,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>271</v>
+        <v>128</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,31 +4773,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,31 +4806,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4834,53 +4852,119 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5659.0100000000002</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>292</v>
       </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>293</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>104</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
         <v>294</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>296</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>297</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>104</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>266</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5834.3900000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>298</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>299</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>300</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5394,10 +5478,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -905,7 +905,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:38 PM</t>
+    <t>Wednesday, 30 July, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -374,267 +374,270 @@
     <t>138.00</t>
   </si>
   <si>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
+    <t>GROWTH FORMULA PREGNANT WOMAN 10 SACHETS 250 GM-CHOCHOLATE</t>
+  </si>
+  <si>
+    <t>179.50</t>
+  </si>
+  <si>
+    <t>179.5000</t>
+  </si>
+  <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT 30GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>69.0000</t>
   </si>
   <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>126.7200</t>
-  </si>
-  <si>
-    <t>GROWTH FORMULA PREGNANT WOMAN 10 SACHETS 250 GM-CHOCHOLATE</t>
-  </si>
-  <si>
-    <t>179.50</t>
-  </si>
-  <si>
-    <t>179.5000</t>
-  </si>
-  <si>
-    <t>HEPTA CARBAMIDE CREAM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>33.1650</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MARCAL 30 TABLETS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MEDEXAFLAM 15MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT 30GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>MYOGREL 75MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NODY NASAL SPRAY</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -905,7 +908,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:39 PM</t>
+    <t>Wednesday, 30 July, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2635,7 +2638,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2652,7 +2655,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -3672,10 +3675,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3705,7 +3708,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3750,7 +3753,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3866,11 +3869,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3998,11 +4001,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4014,7 +4017,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4031,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4080,7 +4083,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4167,10 +4170,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4199,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>18</v>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4229,11 +4232,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>27</v>
@@ -4245,7 +4248,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4311,7 +4314,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4328,11 +4331,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4344,7 +4347,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4361,11 +4364,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4410,14 +4413,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,11 +4430,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4460,14 +4463,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>96</v>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4542,7 +4545,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4559,7 +4562,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4575,14 +4578,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4608,7 +4611,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4641,7 +4644,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4674,7 +4677,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4707,7 +4710,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4773,14 +4776,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4823,7 +4826,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4889,11 +4892,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4922,11 +4925,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -4934,13 +4937,13 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>5834.3900000000003</v>
+        <v>5972.3900000000003</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c t="s" r="A111" s="14">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4948,13 +4951,13 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c t="s" r="G111" s="15">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16"/>
       <c t="s" r="K111" s="17">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -176,6 +176,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 10/160MG 28 F.C.TABS.</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FUSI 2% OINT. 15 GM</t>
   </si>
   <si>
@@ -818,6 +836,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -827,9 +854,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -908,7 +932,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:40 PM</t>
+    <t>Wednesday, 30 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1959,10 +1983,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1992,10 +2016,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2044,7 +2068,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2061,7 +2085,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2077,7 +2101,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2094,7 +2118,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2110,7 +2134,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2143,7 +2167,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2176,7 +2200,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2186,11 +2210,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2202,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2226,7 +2250,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2242,7 +2266,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2275,7 +2299,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2292,7 +2316,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2308,7 +2332,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2318,7 +2342,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2341,7 +2365,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2374,7 +2398,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2417,11 +2441,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2454,10 +2478,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2466,28 +2490,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2499,7 +2523,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2512,7 +2536,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2545,7 +2569,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2572,13 +2596,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2589,7 +2613,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2605,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2638,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2648,7 +2672,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2671,7 +2695,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2688,7 +2712,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2704,24 +2728,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2730,24 +2754,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2770,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2787,7 +2811,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2803,7 +2827,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2820,7 +2844,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2836,7 +2860,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2869,13 +2893,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2886,7 +2910,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2902,7 +2926,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2935,13 +2959,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2952,7 +2976,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2968,7 +2992,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2985,7 +3009,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3001,7 +3025,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3034,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3051,7 +3075,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3067,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3100,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3117,7 +3141,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3166,7 +3190,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3176,7 +3200,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3199,7 +3223,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3216,7 +3240,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3232,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3242,7 +3266,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3265,7 +3289,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3331,7 +3355,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3348,7 +3372,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3364,7 +3388,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,11 +3398,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3390,7 +3414,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3403,15 +3427,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3440,11 +3464,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3463,13 +3487,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3496,24 +3520,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3539,11 +3563,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3555,20 +3579,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3595,7 +3619,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3621,7 +3645,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3638,11 +3662,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,14 +3695,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>209</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3687,31 +3711,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3720,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,14 +3761,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,31 +3777,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3793,24 +3817,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,7 +3843,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3832,18 +3856,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,7 +3876,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3865,18 +3889,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3892,13 +3916,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3909,7 +3933,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3925,7 +3949,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3942,7 +3966,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3958,7 +3982,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3984,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,11 +4058,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4067,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4083,7 +4107,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4100,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4157,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>156</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4149,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>209</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,31 +4305,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,28 +4338,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4354,21 +4378,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4380,28 +4404,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4413,20 +4437,20 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4446,31 +4470,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>270</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4486,24 +4510,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,31 +4536,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>18</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4578,31 +4602,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4618,24 +4642,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4644,31 +4668,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,28 +4701,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>186</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4710,7 +4734,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4723,15 +4747,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4743,28 +4767,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4776,28 +4800,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4809,7 +4833,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4822,18 +4846,18 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4842,28 +4866,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4875,28 +4899,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4908,66 +4932,165 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5972.3900000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>299</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
         <v>300</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>107</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>286</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>301</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>302</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>107</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>303</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>306</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>107</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>273</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6099.8900000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>307</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>308</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>309</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5491,10 +5614,25 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:44 PM</t>
+    <t>Wednesday, 30 July, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -308,591 +308,633 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLLAR FOAM CLEANSER</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>200.0000</t>
+  </si>
+  <si>
+    <t>EASYRON 30 TABLETS</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>6:8</t>
+  </si>
+  <si>
+    <t>155.5200</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>207.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GAPTIN 100 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>126.7200</t>
+  </si>
+  <si>
+    <t>GROWTH FORMULA PREGNANT WOMAN 10 SACHETS 250 GM-CHOCHOLATE</t>
+  </si>
+  <si>
+    <t>179.50</t>
+  </si>
+  <si>
+    <t>179.5000</t>
+  </si>
+  <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.50</t>
+  </si>
+  <si>
+    <t>33.1650</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>LOADLESS 5/20MG 30 CAP</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>MEDIPHA D3 DROP</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT 30GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>MYOGREL 75MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>NODY NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>OFRAMAX 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>1:14</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>RONIDERM TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>RX MASSAGE SPRAY</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8466:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>195.5100</t>
+  </si>
+  <si>
+    <t>ZANOGLIDE 2/30 MG 30 TAB</t>
+  </si>
+  <si>
+    <t>برمنجنات بوتاسيوم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
+  </si>
+  <si>
+    <t>بيرسول حشرات طائره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>73:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLLAR FOAM CLEANSER</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>200.0000</t>
-  </si>
-  <si>
-    <t>EASYRON 30 TABLETS</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>6:8</t>
-  </si>
-  <si>
-    <t>155.5200</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>207.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FAYCID HAIR OIL 60 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>FUTACOXIB 90 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GAPTIN 100 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>126.7200</t>
-  </si>
-  <si>
-    <t>GROWTH FORMULA PREGNANT WOMAN 10 SACHETS 250 GM-CHOCHOLATE</t>
-  </si>
-  <si>
-    <t>179.50</t>
-  </si>
-  <si>
-    <t>179.5000</t>
-  </si>
-  <si>
-    <t>HEPTA CARBAMIDE CREAM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.50</t>
-  </si>
-  <si>
-    <t>33.1650</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>LOADLESS 5/20MG 30 CAP</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>MARCAL 30 TABLETS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>MAVILOR PLUS 5/12.5 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>MEDEXAFLAM 15MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>MEDIPHA D3 DROP</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT 30GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>MYOGREL 75MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>NODY NASAL SPRAY</t>
-  </si>
-  <si>
-    <t>OPTIDEX -T EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:13</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>RONIDERM TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>ROYAL ZAD</t>
-  </si>
-  <si>
-    <t>RX MASSAGE SPRAY</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8466:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XANTHISTOP 80 MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>195.5100</t>
-  </si>
-  <si>
-    <t>ZANOGLIDE 2/30 MG 30 TAB</t>
-  </si>
-  <si>
-    <t>برمنجنات بوتاسيوم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بيبرونه ALGO صغيره </t>
-  </si>
-  <si>
-    <t>بيرسول حشرات طائره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>73:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 30*15</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>فرش اسنان O2</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 30*15</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>فرش اسنان O2</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -917,22 +959,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:45 PM</t>
+    <t>Wednesday, 30 July, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2445,10 +2478,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -3223,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3256,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3299,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3289,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,7 +3332,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3355,7 +3388,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3388,7 +3421,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3421,7 +3454,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3438,7 +3471,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3454,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,31 +3513,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3526,7 +3559,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3537,7 +3570,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3553,7 +3586,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3570,7 +3603,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3586,21 +3619,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3612,20 +3645,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3652,7 +3685,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3685,7 +3718,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3711,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,11 +3761,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3744,7 +3777,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3761,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3784,24 +3817,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,14 +3926,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3909,31 +3942,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,11 +3992,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3975,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4008,31 +4041,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4048,21 +4081,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4074,14 +4107,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4190,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,11 +4256,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>162</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4239,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>215</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4312,7 +4345,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4329,7 +4362,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4345,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4371,31 +4404,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,31 +4437,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,31 +4470,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,28 +4503,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4503,14 +4536,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,11 +4553,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4536,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4602,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>279</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4652,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>99</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4652,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4751,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>84</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>85</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>192</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4866,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>295</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4899,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>264</v>
+        <v>84</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4932,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,14 +4982,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,11 +5015,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -4998,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,11 +5048,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>131</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5031,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5048,49 +5081,181 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6099.8900000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>312</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>22</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>107</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>298</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>313</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>314</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>107</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>298</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>307</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>308</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>309</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q114" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>315</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>107</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>218</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>316</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>317</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>107</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>285</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6452.9700000000003</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>318</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>319</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>320</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5629,10 +5794,30 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:47 PM</t>
+    <t>Wednesday, 30 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -965,7 +965,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:48 PM</t>
+    <t>Wednesday, 30 July, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
@@ -401,6 +410,12 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -539,12 +554,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LASILACTONE 100/20MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -641,6 +650,9 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -665,9 +677,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -743,6 +752,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -779,9 +797,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -965,7 +980,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:50 PM</t>
+    <t>Wednesday, 30 July, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2233,7 +2248,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2266,7 +2281,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2292,14 +2307,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2316,7 +2331,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2332,7 +2347,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2365,7 +2380,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2382,7 +2397,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2398,7 +2413,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2408,7 +2423,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2431,7 +2446,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2441,14 +2456,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2464,7 +2479,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2507,14 +2522,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2523,14 +2538,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2544,10 +2559,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2556,28 +2571,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2602,7 +2617,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2635,7 +2650,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2662,13 +2677,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2679,7 +2694,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2695,7 +2710,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2728,7 +2743,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2738,7 +2753,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2761,7 +2776,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2778,7 +2793,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2794,24 +2809,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2820,24 +2835,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2860,7 +2875,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2985,31 +3000,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,11 +3050,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3051,31 +3066,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3084,14 +3099,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3101,14 +3116,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3117,14 +3132,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3134,11 +3149,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3150,14 +3165,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3182,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,11 +3215,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3216,14 +3231,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3248,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3264,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,11 +3281,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3282,14 +3297,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3299,14 +3314,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3315,14 +3330,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3332,14 +3347,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3363,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3380,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3414,14 +3429,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3447,7 +3462,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3480,14 +3495,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,11 +3545,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3546,7 +3561,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3559,15 +3574,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,11 +3611,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3612,28 +3627,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3645,31 +3660,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3693,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,11 +3710,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3711,28 +3726,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3744,14 +3759,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,11 +3776,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3777,14 +3792,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3809,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3810,7 +3825,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3827,11 +3842,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3850,7 +3865,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,11 +3875,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3876,7 +3891,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3893,14 +3908,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>223</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,31 +3924,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,14 +3957,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3974,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,31 +4023,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,31 +4056,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4074,31 +4089,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4139,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,31 +4155,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,31 +4188,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4239,7 +4254,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4337,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4404,14 +4419,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4436,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>223</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4452,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4485,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4502,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,11 +4535,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4536,31 +4551,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4569,31 +4584,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,31 +4617,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,28 +4650,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4668,28 +4683,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4701,31 +4716,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,31 +4749,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>291</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,31 +4782,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>204</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,31 +4815,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,31 +4848,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4866,31 +4881,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,7 +4914,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4912,18 +4927,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,31 +4947,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,31 +4980,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,24 +5013,24 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5038,21 +5053,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5064,28 +5079,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>276</v>
+        <v>87</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5097,31 +5112,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,28 +5145,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5163,7 +5178,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5176,18 +5191,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5196,66 +5211,198 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6452.9700000000003</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>317</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>22</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>110</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>303</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>318</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
         <v>319</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>110</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>303</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>320</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>110</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>77</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>322</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>110</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>290</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6605.5900000000001</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>323</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>324</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>325</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5814,10 +5961,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -674,12 +683,21 @@
     <t>OPTIDEX -T EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -980,7 +998,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:57 PM</t>
+    <t>Wednesday, 30 July, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2941,7 +2959,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2958,7 +2976,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2974,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3007,7 +3025,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3024,7 +3042,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3040,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3057,7 +3075,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3073,13 +3091,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3106,13 +3124,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3139,7 +3157,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3156,7 +3174,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,7 +3207,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3205,7 +3223,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3222,7 +3240,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3271,7 +3289,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3304,7 +3322,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3321,7 +3339,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3337,7 +3355,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3354,7 +3372,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3370,7 +3388,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3403,7 +3421,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3413,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3429,14 +3447,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3446,11 +3464,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3502,7 +3520,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3535,7 +3553,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3568,7 +3586,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3585,7 +3603,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3601,7 +3619,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3611,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3627,31 +3645,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3673,7 +3691,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3684,7 +3702,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3700,7 +3718,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3717,7 +3735,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3733,21 +3751,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3759,20 +3777,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3799,7 +3817,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3809,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3825,14 +3843,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3842,14 +3860,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3865,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3875,11 +3893,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3891,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3908,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3924,14 +3942,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3941,14 +3959,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3957,14 +3975,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3974,11 +3992,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3990,14 +4008,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4007,14 +4025,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4023,31 +4041,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4056,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4073,14 +4091,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4089,31 +4107,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4122,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4139,14 +4157,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>62</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4162,24 +4180,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4188,7 +4206,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4201,18 +4219,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4221,7 +4239,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4234,18 +4252,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4261,13 +4279,13 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4278,7 +4296,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4294,7 +4312,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4327,7 +4345,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4344,7 +4362,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4360,7 +4378,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4370,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>88</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4386,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4403,14 +4421,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4419,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4436,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4452,7 +4470,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4469,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4485,7 +4503,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4502,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4518,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4535,11 +4553,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>167</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4551,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4568,14 +4586,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>226</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4584,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4601,14 +4619,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4617,14 +4635,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4634,14 +4652,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>129</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4650,14 +4668,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4667,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4683,31 +4701,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4716,28 +4734,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4756,7 +4774,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4766,11 +4784,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4782,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4799,11 +4817,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4815,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>61</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4848,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4865,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>87</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4881,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4898,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>296</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4914,7 +4932,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4931,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4947,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4964,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4980,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4997,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,7 +5055,7 @@
         <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5053,7 +5071,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5063,14 +5081,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5079,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5096,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5112,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5129,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5145,7 +5163,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5162,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>25</v>
@@ -5178,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5195,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>25</v>
@@ -5211,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5228,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5244,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>22</v>
+        <v>320</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5261,14 +5279,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5277,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5294,11 +5312,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5310,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5327,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>18</v>
@@ -5343,14 +5361,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5360,49 +5378,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6605.5900000000001</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>323</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>324</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>326</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>325</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>110</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>77</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>327</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>328</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>110</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>296</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6663.5900000000001</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>329</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>330</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>331</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5981,10 +6065,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -800,6 +800,9 @@
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>TERRAMYCIN EYE OINT. 5 GM</t>
   </si>
   <si>
@@ -998,7 +1001,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 8:59 PM</t>
+    <t>Wednesday, 30 July, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4444,7 +4447,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4458,10 +4461,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4487,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4503,7 +4506,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4520,7 +4523,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4536,7 +4539,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4557,7 +4560,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4569,7 +4572,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4586,11 +4589,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>18</v>
@@ -4602,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4635,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>232</v>
@@ -4668,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,11 +4688,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>18</v>
@@ -4701,7 +4704,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4718,11 +4721,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>27</v>
@@ -4734,7 +4737,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4767,7 +4770,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4784,11 +4787,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4800,7 +4803,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4817,11 +4820,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4833,7 +4836,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4850,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,11 +4919,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4932,7 +4935,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4949,11 +4952,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>40</v>
@@ -4965,7 +4968,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4982,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4998,7 +5001,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5015,7 +5018,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5048,11 +5051,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>18</v>
@@ -5064,7 +5067,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5081,7 +5084,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5097,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5114,11 +5117,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5130,7 +5133,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5147,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5163,7 +5166,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5196,7 +5199,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5229,7 +5232,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5246,11 +5249,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>25</v>
@@ -5262,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5295,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5315,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>25</v>
@@ -5328,7 +5331,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5345,7 +5348,7 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
@@ -5361,14 +5364,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5381,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>25</v>
@@ -5394,14 +5397,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,11 +5447,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>25</v>
@@ -5456,13 +5459,13 @@
     </row>
     <row r="123" ht="24.75" customHeight="1">
       <c r="P123" s="13">
-        <v>6663.5900000000001</v>
+        <v>6713.5900000000001</v>
       </c>
       <c r="Q123" s="13"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c t="s" r="A124" s="14">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -5470,13 +5473,13 @@
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c t="s" r="G124" s="15">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="16"/>
       <c t="s" r="K124" s="17">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
@@ -287,6 +299,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CURAM 1GM 12 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>60.0600</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -413,9 +434,6 @@
     <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>FAYCID HAIR OIL 60 ML</t>
   </si>
   <si>
@@ -437,12 +455,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -1001,7 +1013,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:02 PM</t>
+    <t>Wednesday, 30 July, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1692,7 +1704,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1725,7 +1737,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1734,14 +1746,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1751,14 +1763,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1774,7 +1786,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1784,11 +1796,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1817,14 +1829,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1833,14 +1845,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1850,14 +1862,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1890,7 +1902,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1906,7 +1918,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1916,14 +1928,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1949,14 +1961,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1965,14 +1977,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1982,14 +1994,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1998,14 +2010,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2015,14 +2027,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2031,14 +2043,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2081,14 +2093,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2137,7 +2149,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2147,14 +2159,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2163,14 +2175,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2196,7 +2208,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2213,14 +2225,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2279,14 +2291,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2312,11 +2324,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2368,7 +2380,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2378,14 +2390,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2427,14 +2439,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2444,14 +2456,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,11 +2489,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,14 +2588,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2625,20 +2637,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2646,10 +2658,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2658,14 +2670,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2682,7 +2694,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2698,24 +2710,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2753,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,31 +2769,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,14 +2802,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,14 +2819,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2856,31 +2868,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,11 +2918,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2922,31 +2934,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2995,7 +3007,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3012,7 +3024,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3028,7 +3040,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3045,7 +3057,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3061,7 +3073,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3099,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,11 +3116,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3120,31 +3132,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3186,31 +3198,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3490,7 +3502,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3507,7 +3519,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3523,7 +3535,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3545,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,11 +3578,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3688,13 +3700,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3705,7 +3717,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3721,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,11 +3743,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3747,31 +3759,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,31 +3792,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,31 +3858,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3886,7 +3898,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3903,7 +3915,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3919,7 +3931,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3952,7 +3964,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>231</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>232</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,31 +4122,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,31 +4188,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,31 +4254,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4275,31 +4287,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4315,24 +4327,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,31 +4353,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4579,7 +4591,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4593,10 +4605,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>232</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4733,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4777,13 +4789,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4794,7 +4806,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4810,24 +4822,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,31 +4848,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4876,24 +4888,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,31 +4914,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,31 +4947,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4980,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>303</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,31 +5013,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>210</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,31 +5046,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>18</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,31 +5079,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>18</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5100,31 +5112,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,31 +5145,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,31 +5178,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>87</v>
+        <v>317</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,31 +5211,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,31 +5244,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,31 +5277,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>321</v>
+        <v>214</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5305,24 +5317,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5338,24 +5350,24 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5364,31 +5376,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,31 +5409,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5430,66 +5442,132 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6713.5900000000001</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>331</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
         <v>330</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>331</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>117</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>81</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>332</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>333</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>117</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>301</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>6802.3599999999997</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>334</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>335</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>336</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6078,10 +6156,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -743,6 +743,15 @@
     <t>75.2000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -1013,7 +1022,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:15 PM</t>
+    <t>Wednesday, 30 July, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4261,7 +4270,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,31 +4329,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>29</v>
@@ -4393,13 +4402,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4410,7 +4419,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4426,7 +4435,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4443,7 +4452,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4459,7 +4468,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4476,7 +4485,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4509,7 +4518,7 @@
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4525,7 +4534,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4591,7 +4600,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4605,7 +4614,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>29</v>
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>84</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>29</v>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>84</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4690,7 +4699,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>173</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>236</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4806,7 +4815,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>28</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,28 +4857,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>27</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>29</v>
@@ -4888,7 +4897,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4921,7 +4930,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,11 +4940,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>29</v>
@@ -4947,7 +4956,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4964,11 +4973,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>29</v>
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4997,11 +5006,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>91</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>29</v>
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5037,7 +5046,7 @@
         <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>307</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,7 +5088,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5096,14 +5105,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>214</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,14 +5121,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,14 +5138,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>22</v>
@@ -5178,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>44</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5199,10 +5208,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5211,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>319</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5228,11 +5237,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>29</v>
@@ -5244,7 +5253,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5261,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>29</v>
@@ -5277,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>29</v>
@@ -5310,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5336,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>29</v>
@@ -5343,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,11 +5369,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>29</v>
@@ -5376,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>29</v>
@@ -5409,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5426,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,14 +5468,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>323</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,7 +5517,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5525,49 +5534,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>6802.3599999999997</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>334</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>335</v>
       </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
         <v>336</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>117</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>304</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6860.3599999999997</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>337</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>338</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>339</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6166,10 +6208,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -1016,13 +1016,16 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>25:0</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:16 PM</t>
+    <t>Wednesday, 30 July, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5524,7 +5527,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5538,10 +5541,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5579,13 +5582,13 @@
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="P126" s="13">
-        <v>6860.3599999999997</v>
+        <v>6836.3599999999997</v>
       </c>
       <c r="Q126" s="13"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c t="s" r="A127" s="14">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -5593,13 +5596,13 @@
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c t="s" r="G127" s="15">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="16"/>
       <c t="s" r="K127" s="17">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L127" s="17"/>
       <c r="M127" s="17"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:25 PM</t>
+    <t>Wednesday, 30 July, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:29 PM</t>
+    <t>Wednesday, 30 July, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:30 PM</t>
+    <t>Wednesday, 30 July, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -389,6 +398,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/40MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -509,6 +527,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -674,6 +704,9 @@
     <t>NANAZOXID 500MG 18 F.C. TABS.</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
     <t>NETLOOK 10MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -683,6 +716,15 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>NODY NASAL SPRAY</t>
   </si>
   <si>
@@ -812,9 +854,6 @@
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
     <t>0.0000</t>
   </si>
   <si>
@@ -1025,7 +1064,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:31 PM</t>
+    <t>Wednesday, 30 July, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2392,7 +2431,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2402,11 +2441,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2442,7 +2481,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2458,7 +2497,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2491,7 +2530,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2508,7 +2547,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2524,7 +2563,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2557,7 +2596,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,7 +2606,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2590,7 +2629,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2600,14 +2639,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2623,7 +2662,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,14 +2672,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2666,14 +2705,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2682,14 +2721,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2703,10 +2742,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2715,28 +2754,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>29</v>
@@ -2748,7 +2787,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2761,7 +2800,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2794,7 +2833,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2821,13 +2860,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2838,7 +2877,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2854,24 +2893,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2887,7 +2926,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2904,7 +2943,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2920,7 +2959,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2930,14 +2969,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2953,24 +2992,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2996,11 +3035,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3012,28 +3051,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>29</v>
@@ -3045,14 +3084,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,14 +3101,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3085,7 +3124,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3095,14 +3134,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3128,14 +3167,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3144,14 +3183,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3161,14 +3200,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3184,7 +3223,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3217,13 +3256,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3234,7 +3273,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3250,7 +3289,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3283,13 +3322,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3300,7 +3339,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3316,7 +3355,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3333,7 +3372,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3349,7 +3388,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3382,7 +3421,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3392,14 +3431,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3408,7 +3447,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3425,14 +3464,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3441,14 +3480,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,14 +3497,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3474,7 +3513,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3491,11 +3530,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>29</v>
@@ -3507,7 +3546,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3524,11 +3563,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>29</v>
@@ -3540,14 +3579,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,11 +3596,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3573,14 +3612,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3590,14 +3629,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3606,14 +3645,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3623,14 +3662,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3639,14 +3678,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3656,11 +3695,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3672,7 +3711,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3689,11 +3728,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3705,14 +3744,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,14 +3761,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3738,14 +3777,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3755,11 +3794,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3771,31 +3810,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3804,7 +3843,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3821,14 +3860,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3837,14 +3876,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3854,14 +3893,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3870,20 +3909,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3910,7 +3949,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3927,7 +3966,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3943,7 +3982,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3953,14 +3992,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3969,28 +4008,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -4002,14 +4041,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4019,11 +4058,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4035,14 +4074,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4052,14 +4091,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4068,7 +4107,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4085,11 +4124,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>29</v>
@@ -4101,14 +4140,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4118,14 +4157,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>231</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4134,14 +4173,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,14 +4190,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4167,14 +4206,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4184,14 +4223,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>236</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4200,31 +4239,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4233,14 +4272,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4250,14 +4289,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4266,14 +4305,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4283,14 +4322,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4299,14 +4338,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,14 +4355,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4332,14 +4371,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,14 +4388,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4365,31 +4404,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4405,24 +4444,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4431,7 +4470,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4448,14 +4487,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4464,14 +4503,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,14 +4520,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4497,14 +4536,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4514,14 +4553,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4530,31 +4569,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4563,31 +4602,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4603,7 +4642,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4620,7 +4659,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4636,7 +4675,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4650,10 +4689,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4662,14 +4701,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4679,14 +4718,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,14 +4734,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,14 +4751,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4728,14 +4767,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4745,14 +4784,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4761,14 +4800,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4778,14 +4817,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>236</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,14 +4833,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4815,10 +4854,10 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4827,14 +4866,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4844,14 +4883,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>84</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4860,14 +4899,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,14 +4916,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>28</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4900,21 +4939,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>295</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>29</v>
@@ -4926,31 +4965,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4959,31 +4998,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4992,31 +5031,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5025,28 +5064,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>27</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>29</v>
@@ -5058,31 +5097,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5091,31 +5130,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>310</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,31 +5163,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>85</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>214</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5157,31 +5196,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>94</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5190,20 +5229,20 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5211,10 +5250,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>143</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5223,20 +5262,20 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5247,7 +5286,7 @@
         <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5269,18 +5308,18 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>29</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5289,7 +5328,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5302,18 +5341,18 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5322,31 +5361,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>205</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>206</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5355,31 +5394,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,28 +5427,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>29</v>
@@ -5421,28 +5460,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>29</v>
@@ -5454,7 +5493,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5467,18 +5506,18 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,28 +5526,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>224</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>29</v>
@@ -5520,28 +5559,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>29</v>
@@ -5553,66 +5592,231 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>305</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6836.3599999999997</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>338</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>342</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>343</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>120</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>308</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>344</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>26</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>120</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>330</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>345</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>346</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>120</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>330</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>339</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>340</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>347</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>348</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>120</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>81</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>349</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>350</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>120</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>317</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7116.3599999999997</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>351</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>352</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>353</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6216,10 +6420,35 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -1064,7 +1064,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:43 PM</t>
+    <t>Wednesday, 30 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -893,6 +893,9 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -1064,7 +1067,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:46 PM</t>
+    <t>Wednesday, 30 July, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4939,7 +4942,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4949,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>183</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>29</v>
@@ -4965,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4982,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4998,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5015,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>142</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5031,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5064,7 +5067,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5081,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>28</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5104,21 +5107,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>27</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>29</v>
@@ -5130,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5147,11 +5150,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>29</v>
@@ -5163,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5180,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>29</v>
@@ -5213,11 +5216,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>94</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>29</v>
@@ -5236,7 +5239,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>316</v>
+        <v>65</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>29</v>
@@ -5262,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5279,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5295,7 +5298,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5312,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>149</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>323</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5328,7 +5331,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5345,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>224</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5368,7 +5371,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5378,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>22</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5394,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>44</v>
+        <v>327</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5411,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>22</v>
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5444,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>334</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5460,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5477,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>29</v>
@@ -5510,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>29</v>
@@ -5533,7 +5536,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5543,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>29</v>
@@ -5566,7 +5569,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5576,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>339</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>29</v>
@@ -5592,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5609,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>29</v>
@@ -5625,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5642,11 +5645,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>308</v>
+        <v>148</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>29</v>
@@ -5658,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5675,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5698,7 +5701,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5708,14 +5711,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5724,14 +5727,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5741,11 +5744,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>29</v>
@@ -5757,14 +5760,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5774,49 +5777,82 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>350</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>351</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>120</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
         <v>318</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7116.3599999999997</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>351</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>7139.3599999999997</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>352</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
         <v>353</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>354</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6445,10 +6481,15 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -602,6 +602,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -881,9 +887,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -1067,7 +1070,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 9:47 PM</t>
+    <t>Wednesday, 30 July, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3688,7 +3691,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3747,7 +3750,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3800,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,11 +3833,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,31 +3915,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,7 +3948,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3958,18 +3961,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,28 +4014,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>29</v>
@@ -4044,28 +4047,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>29</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,7 +4146,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>29</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4282,7 +4285,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>118</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>245</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,31 +4410,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,31 +4443,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4579,24 +4582,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>29</v>
@@ -4638,31 +4641,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4691,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4777,7 +4780,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4790,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4810,7 +4813,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>94</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>29</v>
@@ -4876,7 +4879,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,11 +4889,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>29</v>
@@ -4909,7 +4912,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4955,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4975,7 +4978,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,11 +4988,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>29</v>
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>250</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5037,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5054,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>142</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,14 +5070,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,7 +5103,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5117,14 +5120,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5140,21 +5143,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>310</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>29</v>
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,11 +5186,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>29</v>
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,11 +5219,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>29</v>
@@ -5249,11 +5252,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>94</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>29</v>
@@ -5272,7 +5275,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5285,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>318</v>
+        <v>94</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>29</v>
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>318</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,14 +5318,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,7 +5334,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5348,14 +5351,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>149</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>324</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,7 +5367,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5381,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>224</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5404,7 +5407,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,11 +5450,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>22</v>
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,14 +5483,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,14 +5499,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>334</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5516,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>29</v>
@@ -5546,11 +5549,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>94</v>
+        <v>319</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>95</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>29</v>
@@ -5569,7 +5572,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,11 +5582,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>216</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>29</v>
@@ -5602,7 +5605,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5615,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>217</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>29</v>
@@ -5628,14 +5631,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>29</v>
@@ -5661,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,11 +5681,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>29</v>
@@ -5694,14 +5697,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>149</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5734,7 +5737,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>347</v>
+        <v>26</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,14 +5747,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5760,14 +5763,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>244</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>29</v>
@@ -5793,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,49 +5813,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>351</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>352</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>120</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
         <v>319</v>
       </c>
-      <c t="s" r="Q131" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>7139.3599999999997</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>352</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7175.3599999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>353</v>
       </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
         <v>354</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>355</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6486,10 +6522,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>ALZENTAL 20MG/ML SUSP. 20ML</t>
   </si>
   <si>
@@ -431,7 +440,10 @@
     <t>138.00</t>
   </si>
   <si>
-    <t>207.0000</t>
+    <t>276.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
@@ -584,6 +596,18 @@
     <t>86.5000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -1034,9 +1058,6 @@
     <t>فرش اسنان O2</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -1070,7 +1091,7 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:00 PM</t>
+    <t>Wednesday, 30 July, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1777,7 +1798,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1787,14 +1808,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1836,14 +1857,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1853,14 +1874,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1869,14 +1890,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1909,7 +1930,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1926,7 +1947,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1942,7 +1963,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1959,7 +1980,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1975,7 +1996,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1985,14 +2006,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2025,7 +2046,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2041,7 +2062,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2058,7 +2079,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2074,7 +2095,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2091,7 +2112,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2107,7 +2128,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2124,7 +2145,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2140,7 +2161,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2157,7 +2178,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2173,7 +2194,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2187,10 +2208,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2220,10 +2241,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2256,7 +2277,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2272,7 +2293,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2289,7 +2310,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2305,7 +2326,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2322,7 +2343,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2338,7 +2359,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2371,7 +2392,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2404,7 +2425,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2437,7 +2458,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2470,7 +2491,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2480,11 +2501,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2520,7 +2541,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2536,7 +2557,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2553,7 +2574,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2586,7 +2607,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2602,7 +2623,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2635,7 +2656,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2645,7 +2666,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2668,7 +2689,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2701,7 +2722,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2781,10 +2802,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2793,31 +2814,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2826,20 +2847,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2850,7 +2871,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2866,13 +2887,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2883,7 +2904,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2899,13 +2920,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2916,7 +2937,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2932,13 +2953,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2965,7 +2986,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2998,7 +3019,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3031,7 +3052,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3048,7 +3069,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3064,24 +3085,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3107,11 +3128,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3123,31 +3144,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3163,7 +3184,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3229,7 +3250,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3246,7 +3267,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3262,7 +3283,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3321,31 +3342,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3387,31 +3408,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3552,7 +3573,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3585,14 +3606,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3602,14 +3623,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3618,14 +3639,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3668,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3724,7 +3745,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3800,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3833,11 +3854,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3866,11 +3887,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3882,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3899,14 +3920,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3915,14 +3936,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3932,11 +3953,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3948,31 +3969,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3998,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4097,14 +4118,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4113,14 +4134,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4130,14 +4151,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4153,24 +4174,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4179,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4196,14 +4217,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4212,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4229,11 +4250,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4245,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4262,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4278,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4295,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4311,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>117</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4344,14 +4365,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4361,14 +4382,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>247</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4377,14 +4398,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4394,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4410,14 +4431,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4427,14 +4448,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>252</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4443,31 +4464,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>255</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4483,7 +4504,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4493,14 +4514,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>84</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4509,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4526,14 +4547,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4542,31 +4563,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4575,14 +4596,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4592,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4608,31 +4629,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4641,31 +4662,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4674,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4691,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4707,31 +4728,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4740,31 +4761,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4773,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4790,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4813,7 +4834,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4823,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4839,14 +4860,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4856,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4872,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4889,11 +4910,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>29</v>
@@ -4905,14 +4926,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4922,14 +4943,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4938,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4955,14 +4976,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4971,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4988,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5004,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5037,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5054,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>142</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>252</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5070,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5087,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5103,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5120,14 +5141,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>187</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5136,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5153,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>29</v>
+        <v>260</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5176,24 +5197,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5202,31 +5223,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5235,31 +5256,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5268,31 +5289,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5301,31 +5322,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5334,31 +5355,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5374,24 +5395,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>325</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5400,31 +5421,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>226</v>
+        <v>32</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5433,31 +5454,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5466,31 +5487,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>333</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5499,31 +5520,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>334</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>29</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5532,31 +5553,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>336</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5565,31 +5586,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5598,31 +5619,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5631,31 +5652,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5664,31 +5685,31 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5697,31 +5718,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5730,31 +5751,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5763,31 +5784,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>341</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5796,31 +5817,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5829,66 +5850,165 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>352</v>
+        <v>29</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>320</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7175.3599999999997</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>353</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>354</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
         <v>355</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>123</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>340</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>357</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>123</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>84</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>358</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>359</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>123</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>327</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7334.9700000000003</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>360</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>361</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>362</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6527,10 +6647,25 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-30_00-00.xlsx
+++ b/DaySale_2025-07-30_00-00.xlsx
@@ -140,6 +140,24 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -251,6 +269,15 @@
     <t>129.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -338,10 +365,10 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
@@ -356,7 +383,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
@@ -380,9 +407,6 @@
     <t>DOLLAR FOAM CLEANSER</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>200.00</t>
   </si>
   <si>
@@ -422,9 +446,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -524,12 +545,6 @@
     <t>GAPTIN 100 MG 30 CAPS.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -593,7 +608,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>86.5000</t>
+    <t>173.0000</t>
   </si>
   <si>
     <t>INDERAL 10 MG 50 TABS</t>
@@ -626,6 +641,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -686,12 +710,6 @@
     <t>MEDIPHA D3 DROP</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -791,9 +809,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -860,9 +875,6 @@
     <t>54.00</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -989,66 +1001,66 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>73:0</t>
+    <t>72:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاش 7 سم </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>شاش فازلين 30*15</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاش 7 سم </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>شاش فازلين 30*15</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -1082,16 +1094,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>Wednesday, 30 July, 2025 10:04 PM</t>
+    <t>Wednesday, 30 July, 2025 10:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,24 +2005,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2022,14 +2031,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2072,11 +2081,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>32</v>
@@ -2088,14 +2097,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2105,14 +2114,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2121,14 +2130,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2154,14 +2163,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2171,14 +2180,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2187,14 +2196,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2204,14 +2213,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2220,7 +2229,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2237,14 +2246,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2303,11 +2312,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>32</v>
@@ -2319,14 +2328,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2369,14 +2378,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2402,14 +2411,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2435,11 +2444,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2451,14 +2460,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2468,14 +2477,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2484,14 +2493,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2501,11 +2510,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2534,11 +2543,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2666,14 +2675,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2682,14 +2691,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2831,14 +2840,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2847,31 +2856,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2913,7 +2922,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2926,15 +2935,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>32</v>
@@ -2946,31 +2955,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2979,31 +2988,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3012,31 +3021,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3128,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3144,31 +3153,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3177,14 +3186,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3194,11 +3203,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3210,28 +3219,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3276,14 +3285,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,14 +3302,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,11 +3401,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3408,31 +3417,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3474,31 +3483,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3540,7 +3549,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,14 +3599,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3639,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,11 +3665,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3689,14 +3698,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,11 +3764,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
@@ -3771,14 +3780,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3804,14 +3813,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3844,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3986,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4068,31 +4077,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,7 +4110,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,28 +4176,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>32</v>
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4266,28 +4275,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>241</v>
       </c>
   